--- a/Batch/14/Day_4.xlsx
+++ b/Batch/14/Day_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\statistics\Batch\14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43591E4A-BD6C-46BC-97A1-6F704DD37C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19AE80-88C6-4580-8072-0DD5A0AA38E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15040,6 +15040,3539 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>192060</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>27848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>372420</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>86276</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId401">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1092" name="Ink 1091">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A6C69D-9EFE-2499-DF16-43A5C2B41B1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11202960" y="21222334"/>
+            <a:ext cx="180360" cy="238042"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1092" name="Ink 1091">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A6C69D-9EFE-2499-DF16-43A5C2B41B1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId402"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11196840" y="21216089"/>
+              <a:ext cx="192600" cy="250532"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200520</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>36925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408960</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>119005</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId403">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1093" name="Ink 1092">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3DE225-A3BE-392A-AD18-9D1B6698467B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5382120" y="21770254"/>
+            <a:ext cx="208440" cy="82080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1093" name="Ink 1092">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3DE225-A3BE-392A-AD18-9D1B6698467B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId404"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5376000" y="21764134"/>
+              <a:ext cx="220680" cy="94320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>191422</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>170825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>418582</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>80156</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId405">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1096" name="Ink 1095">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7E3421-2A86-4D03-1222-4276A8921AC7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11202322" y="21185696"/>
+            <a:ext cx="227160" cy="268560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1096" name="Ink 1095">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7E3421-2A86-4D03-1222-4276A8921AC7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId406"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11196202" y="21179576"/>
+              <a:ext cx="239400" cy="280800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4860</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>108797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69300</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>84703</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId407">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1103" name="Ink 1102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81CCB83-BF6F-5781-8B87-7A1C6A14F612}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3243360" y="27557126"/>
+            <a:ext cx="64440" cy="155520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1103" name="Ink 1102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81CCB83-BF6F-5781-8B87-7A1C6A14F612}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId408"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3237240" y="27551006"/>
+              <a:ext cx="76680" cy="167760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>589200</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>46831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136980</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>172852</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId409">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1104" name="Ink 1103">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F08196F-AF1F-C5BA-D4DB-AAB4C590F08A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3180000" y="26597088"/>
+            <a:ext cx="195480" cy="844478"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1104" name="Ink 1103">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F08196F-AF1F-C5BA-D4DB-AAB4C590F08A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId410"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3173880" y="26590966"/>
+              <a:ext cx="207720" cy="856722"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>239820</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>75909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>249900</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>30575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId411">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1105" name="Ink 1104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A4DFCE-6E9F-2B0D-7624-3E21B9CF7C23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4773720" y="26626166"/>
+            <a:ext cx="10080" cy="134280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1105" name="Ink 1104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A4DFCE-6E9F-2B0D-7624-3E21B9CF7C23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId412"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4767600" y="26620046"/>
+              <a:ext cx="22320" cy="146520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485340</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>91389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>625380</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>46415</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId413">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1106" name="Ink 1105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E658F4-61E1-B62F-E782-4C261B17F8E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5019240" y="26641646"/>
+            <a:ext cx="140040" cy="134640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1106" name="Ink 1105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E658F4-61E1-B62F-E782-4C261B17F8E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId414"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5013120" y="26635526"/>
+              <a:ext cx="152280" cy="146880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160200</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>75549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350640</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>163749</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId415">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1107" name="Ink 1106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52D02BD-9BAD-0E24-59B3-7E7E48AC136B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5341800" y="26625806"/>
+            <a:ext cx="190440" cy="88200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1107" name="Ink 1106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52D02BD-9BAD-0E24-59B3-7E7E48AC136B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId416"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5335680" y="26619686"/>
+              <a:ext cx="202680" cy="100440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>230100</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>146495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244860</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId417">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1108" name="Ink 1107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB8586E-46E6-E057-5AB0-5F043734BC37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4764000" y="26876366"/>
+            <a:ext cx="14760" cy="121320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1108" name="Ink 1107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB8586E-46E6-E057-5AB0-5F043734BC37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId418"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4757880" y="26870246"/>
+              <a:ext cx="27000" cy="133560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514140</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>146495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>644460</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId419">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1109" name="Ink 1108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B448D761-2EA5-5654-C237-0A3E9AB02910}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5048040" y="26876366"/>
+            <a:ext cx="130320" cy="124920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1109" name="Ink 1108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B448D761-2EA5-5654-C237-0A3E9AB02910}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId420"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5041920" y="26870246"/>
+              <a:ext cx="142560" cy="137160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123120</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>147215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246960</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId421">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1110" name="Ink 1109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3CF7FE-58FB-B7D7-85E1-E4E60912CF63}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5304720" y="26877086"/>
+            <a:ext cx="123840" cy="190440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1110" name="Ink 1109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3CF7FE-58FB-B7D7-85E1-E4E60912CF63}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId422"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5298600" y="26870966"/>
+              <a:ext cx="136080" cy="202680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165900</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>69789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271740</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>30677</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId423">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1111" name="Ink 1110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8AA22D-B746-EFFA-AAA6-70138E477524}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5995200" y="26620046"/>
+            <a:ext cx="105840" cy="858960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1111" name="Ink 1110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8AA22D-B746-EFFA-AAA6-70138E477524}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId424"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5989080" y="26613926"/>
+              <a:ext cx="118080" cy="871200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419362</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>83675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115822</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>161182</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId425">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1116" name="Ink 1115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BEF57C-D840-BEB7-1C9E-928D7D39BBB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3010162" y="28070846"/>
+            <a:ext cx="344160" cy="257122"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1116" name="Ink 1115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BEF57C-D840-BEB7-1C9E-928D7D39BBB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId426"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3003964" y="28064611"/>
+              <a:ext cx="356556" cy="269593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26460</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>57652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427582</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>96639</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId427">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1119" name="Ink 1118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94066E66-F4BA-8184-B55D-5FF97BFD8261}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7151160" y="27326366"/>
+            <a:ext cx="401122" cy="218602"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1119" name="Ink 1118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94066E66-F4BA-8184-B55D-5FF97BFD8261}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId428"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7144972" y="27320244"/>
+              <a:ext cx="413498" cy="230847"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20362</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>29212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447322</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>93039</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId429">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1123" name="Ink 1122">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AD16D0-72D2-B044-B272-025C5E19E9C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7792762" y="27297926"/>
+            <a:ext cx="426960" cy="243442"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1123" name="Ink 1122">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AD16D0-72D2-B044-B272-025C5E19E9C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId430"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7786574" y="27291804"/>
+              <a:ext cx="439336" cy="255686"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47400</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>93708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605842</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>96614</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId431">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1162" name="Ink 1161">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1461CE02-0BFF-0746-2E71-A1628F1436C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10410600" y="27182808"/>
+            <a:ext cx="558442" cy="182520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1162" name="Ink 1161">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1461CE02-0BFF-0746-2E71-A1628F1436C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId432"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10404479" y="27176527"/>
+              <a:ext cx="570684" cy="195082"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>627180</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>115591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>350662</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>173654</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId433">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1163" name="Ink 1162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941D963A-4073-188D-5483-4C44DA19E7BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9047280" y="26665848"/>
+            <a:ext cx="1018882" cy="776520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1163" name="Ink 1162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941D963A-4073-188D-5483-4C44DA19E7BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId434"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9041131" y="26659728"/>
+              <a:ext cx="1031179" cy="788760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>164640</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>25912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165000</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>26272</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId435">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1170" name="Ink 1169">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35430C5-45AC-B668-F928-32846E9A5FD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7937040" y="29090769"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1170" name="Ink 1169">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35430C5-45AC-B668-F928-32846E9A5FD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId436"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7930920" y="29084649"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>124680</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>65474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238882</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>93883</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId437">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1174" name="Ink 1173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F824B72C-5429-606D-C4BB-7A5D076FF08B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7897080" y="28591488"/>
+            <a:ext cx="114202" cy="387638"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1174" name="Ink 1173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F824B72C-5429-606D-C4BB-7A5D076FF08B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId438"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7890694" y="28585375"/>
+              <a:ext cx="126975" cy="399864"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218160</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>65023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>445402</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>68289</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId439">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1208" name="Ink 1207">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0735F9A-BC03-1A89-8752-0826D3254FF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9285960" y="28231809"/>
+            <a:ext cx="227242" cy="182880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1208" name="Ink 1207">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0735F9A-BC03-1A89-8752-0826D3254FF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId440"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9279709" y="28225689"/>
+              <a:ext cx="239744" cy="195120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140902</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>114780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351502</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>19154</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId441">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1209" name="Ink 1208">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38B76C4-75A7-700A-7917-2E85CDAAEA2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8561002" y="28820409"/>
+            <a:ext cx="210600" cy="263602"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1209" name="Ink 1208">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38B76C4-75A7-700A-7917-2E85CDAAEA2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId442"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8554743" y="28814287"/>
+              <a:ext cx="223118" cy="275846"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>448320</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>122422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>624442</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>79608</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId443">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1210" name="Ink 1209">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4556CD1D-D6E5-A86C-D639-792742099ECE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8220720" y="28828051"/>
+            <a:ext cx="176122" cy="136800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1210" name="Ink 1209">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4556CD1D-D6E5-A86C-D639-792742099ECE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId444"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8214597" y="28821931"/>
+              <a:ext cx="188368" cy="149040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>153780</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>154385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>402982</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>35302</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId445">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1211" name="Ink 1210">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DFE13D-F3F0-B021-E51E-B79A62FEEAEB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8573880" y="28321171"/>
+            <a:ext cx="249202" cy="419760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1211" name="Ink 1210">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DFE13D-F3F0-B021-E51E-B79A62FEEAEB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId446"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8567749" y="28315056"/>
+              <a:ext cx="261464" cy="431990"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>483960</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>105035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>617962</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>17302</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId447">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1212" name="Ink 1211">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CAB26C-7DEE-EB75-8C12-BA12CFB0ECDA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8256360" y="28631049"/>
+            <a:ext cx="134002" cy="91882"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1212" name="Ink 1211">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CAB26C-7DEE-EB75-8C12-BA12CFB0ECDA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId448"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8250236" y="28624899"/>
+              <a:ext cx="146249" cy="104181"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151680</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>68988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>572984</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>141686</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId449">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1213" name="Ink 1212">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BD4FF3-24B4-5546-74C6-D0150307E753}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7924080" y="27696931"/>
+            <a:ext cx="1069004" cy="791155"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1213" name="Ink 1212">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BD4FF3-24B4-5546-74C6-D0150307E753}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId450"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7917932" y="27690812"/>
+              <a:ext cx="1081300" cy="803393"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>430200</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>124115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352102</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>124886</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId451">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1227" name="Ink 1226">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABE1DB9-94F8-94C2-262D-E90BADB9D410}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9498000" y="28650129"/>
+            <a:ext cx="569602" cy="360000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1227" name="Ink 1226">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABE1DB9-94F8-94C2-262D-E90BADB9D410}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId452"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9491879" y="28644009"/>
+              <a:ext cx="581844" cy="372240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590040</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>150678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400260</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>44637</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId453">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1228" name="Ink 1227">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE1C3AA-A555-03EB-5EE1-65A12A09728E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9657840" y="28137849"/>
+            <a:ext cx="457920" cy="432802"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1228" name="Ink 1227">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE1C3AA-A555-03EB-5EE1-65A12A09728E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId454"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9651720" y="28131728"/>
+              <a:ext cx="470160" cy="445044"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447720</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>67363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>626640</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>43629</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId455">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1238" name="Ink 1237">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61CB90D-5120-62F3-BBBF-F61CD7547C0C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6924720" y="30209906"/>
+            <a:ext cx="178920" cy="155880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1238" name="Ink 1237">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61CB90D-5120-62F3-BBBF-F61CD7547C0C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId456"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6918600" y="30203786"/>
+              <a:ext cx="191160" cy="168120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74962</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>49805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228562</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>162871</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId457">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1239" name="Ink 1238">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810432E1-E58B-9DBD-0F6B-C7730946FE94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5256562" y="30192348"/>
+            <a:ext cx="1449000" cy="292680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1239" name="Ink 1238">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810432E1-E58B-9DBD-0F6B-C7730946FE94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId458"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5250442" y="30186129"/>
+              <a:ext cx="1461240" cy="305119"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>481560</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>151295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63540</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>179400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId459">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1248" name="Ink 1247">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5244845-C025-A12F-6281-0C047F267D8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6958560" y="30653066"/>
+            <a:ext cx="229680" cy="207720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1248" name="Ink 1247">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5244845-C025-A12F-6281-0C047F267D8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId460"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6952440" y="30646946"/>
+              <a:ext cx="241920" cy="219960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74122</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>163977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170602</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>71122</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId461">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1249" name="Ink 1248">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E0B9A7-12E3-EA4F-F6E7-304758E6AE0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6551122" y="30665748"/>
+            <a:ext cx="96480" cy="86760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1249" name="Ink 1248">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E0B9A7-12E3-EA4F-F6E7-304758E6AE0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId462"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6545201" y="30659602"/>
+              <a:ext cx="108322" cy="99051"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628260</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>144897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447502</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>86546</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId463">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1250" name="Ink 1249">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2904122-9980-C9B7-31AF-974BA527FA35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5162160" y="30646668"/>
+            <a:ext cx="1114642" cy="300878"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1250" name="Ink 1249">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2904122-9980-C9B7-31AF-974BA527FA35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId464"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5156040" y="30640550"/>
+              <a:ext cx="1126883" cy="313115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142042</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>75031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121822</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>93335</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId465">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1259" name="Ink 1258">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0006EA-9C7A-F075-50B1-FCC9401DF72D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7914442" y="30397188"/>
+            <a:ext cx="627480" cy="197918"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1259" name="Ink 1258">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0006EA-9C7A-F075-50B1-FCC9401DF72D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId466"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7908326" y="30391059"/>
+              <a:ext cx="639713" cy="210175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>154402</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>87939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320280</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>146979</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId467">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1262" name="Ink 1261">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D28534-7CA3-4AD4-1C69-BE93CAA5828E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6631402" y="31667396"/>
+            <a:ext cx="165878" cy="59040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1262" name="Ink 1261">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D28534-7CA3-4AD4-1C69-BE93CAA5828E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId468"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6625285" y="31661276"/>
+              <a:ext cx="178112" cy="71280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144682</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>67440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>325762</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>162562</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId469">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1265" name="Ink 1264">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D0694D-D2EA-E183-AC53-B06710C76D5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6621682" y="32365354"/>
+            <a:ext cx="181080" cy="95122"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1265" name="Ink 1264">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D0694D-D2EA-E183-AC53-B06710C76D5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId470"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6615562" y="32359229"/>
+              <a:ext cx="193320" cy="107373"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72300</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>23777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215940</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>61603</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId471">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1268" name="Ink 1267">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7900717-3AC2-03D6-DB0A-ECDEEE11AC33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5901600" y="31603234"/>
+            <a:ext cx="143640" cy="217440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1268" name="Ink 1267">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7900717-3AC2-03D6-DB0A-ECDEEE11AC33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId472"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5895480" y="31597114"/>
+              <a:ext cx="155880" cy="229680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>378420</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>172791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>26683</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId473">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1271" name="Ink 1270">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6CDE4D-79C9-58B7-C523-2B1E39447A90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8798520" y="31572634"/>
+            <a:ext cx="132120" cy="213120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1271" name="Ink 1270">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6CDE4D-79C9-58B7-C523-2B1E39447A90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId474"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8792400" y="31566514"/>
+              <a:ext cx="144360" cy="225360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>384900</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>155614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>492180</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>164280</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId475">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1274" name="Ink 1273">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655D75AA-2F28-BEAD-0271-BC98D2745FCB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8805000" y="32273914"/>
+            <a:ext cx="107280" cy="188280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1274" name="Ink 1273">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655D75AA-2F28-BEAD-0271-BC98D2745FCB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId476"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8798880" y="32267794"/>
+              <a:ext cx="119520" cy="200520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596520</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>84360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100380</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>108505</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId477">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1277" name="Ink 1276">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7A05AF-2473-6E62-2354-0212187CB657}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5778120" y="32382274"/>
+            <a:ext cx="151560" cy="203760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1277" name="Ink 1276">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7A05AF-2473-6E62-2354-0212187CB657}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId478"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5772000" y="32376154"/>
+              <a:ext cx="163800" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>114574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81840</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>142680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId479">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1279" name="Ink 1278">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA67BBEE-863F-F10F-8C64-5D35D508820F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7617802" y="32232874"/>
+            <a:ext cx="236438" cy="207720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1279" name="Ink 1278">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA67BBEE-863F-F10F-8C64-5D35D508820F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId480"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7611675" y="32226754"/>
+              <a:ext cx="248692" cy="219960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>513900</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>29619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>55920</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>68165</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId481">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1280" name="Ink 1279">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002E83CC-4BC5-2D9A-A53D-7BDA23B0F374}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7638600" y="31609076"/>
+            <a:ext cx="189720" cy="218160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1280" name="Ink 1279">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002E83CC-4BC5-2D9A-A53D-7BDA23B0F374}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId482"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7632480" y="31602956"/>
+              <a:ext cx="201960" cy="230400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>7217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>478080</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>56645</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId483">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1283" name="Ink 1282">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D4EAC9-2B55-6D1B-5C3A-C4065CAC7C72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5192400" y="31586674"/>
+            <a:ext cx="467280" cy="229042"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1283" name="Ink 1282">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D4EAC9-2B55-6D1B-5C3A-C4065CAC7C72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId484"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5186280" y="31580424"/>
+              <a:ext cx="479520" cy="241542"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>498360</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>72017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618960</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>62683</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId485">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1284" name="Ink 1283">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53345C92-3E9C-B556-6D08-A0B68A387D29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8270760" y="31651474"/>
+            <a:ext cx="120600" cy="170280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1284" name="Ink 1283">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53345C92-3E9C-B556-6D08-A0B68A387D29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId486"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8264640" y="31645354"/>
+              <a:ext cx="132840" cy="182520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514222</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>73920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312840</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>143507</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId487">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1286" name="Ink 1285">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE626363-9269-40C5-DEBA-800FB3DFA77D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5048122" y="32371834"/>
+            <a:ext cx="446318" cy="249202"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1286" name="Ink 1285">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE626363-9269-40C5-DEBA-800FB3DFA77D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId488"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5042003" y="32365712"/>
+              <a:ext cx="458556" cy="261446"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450480</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>136894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>591600</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>170400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId489">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1287" name="Ink 1286">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F6DCCD-7C5F-C10F-529A-1582A21C11AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8222880" y="32255194"/>
+            <a:ext cx="141120" cy="213120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1287" name="Ink 1286">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F6DCCD-7C5F-C10F-529A-1582A21C11AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId490"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8216760" y="32249074"/>
+              <a:ext cx="153360" cy="225360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>509820</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>109791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45000</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>96523</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId491">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1289" name="Ink 1288">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F21126F-90B2-907E-A39F-29A20217C37B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5043720" y="31509634"/>
+            <a:ext cx="182880" cy="345960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1289" name="Ink 1288">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F21126F-90B2-907E-A39F-29A20217C37B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId492"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5037600" y="31503514"/>
+              <a:ext cx="195120" cy="358200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247380</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>65280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370140</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>80091</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId493">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1291" name="Ink 1290">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1B1256-27E4-42EE-76F9-D05848299F72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4781280" y="32363194"/>
+            <a:ext cx="122760" cy="374040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1291" name="Ink 1290">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1B1256-27E4-42EE-76F9-D05848299F72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId494"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4775160" y="32357074"/>
+              <a:ext cx="135000" cy="386280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162022</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>32160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>359580</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>28611</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId495">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1294" name="Ink 1293">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5301CD54-E120-9612-40D9-0E5B285A01F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5991322" y="32330074"/>
+            <a:ext cx="197558" cy="355680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1294" name="Ink 1293">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5301CD54-E120-9612-40D9-0E5B285A01F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId496"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5985205" y="32323960"/>
+              <a:ext cx="209793" cy="367908"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229260</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>68391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>499342</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>125683</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId497">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1295" name="Ink 1294">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{373168D5-6F22-F618-8ACE-42BFE03BDCA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6058560" y="31468234"/>
+            <a:ext cx="270082" cy="416520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1295" name="Ink 1294">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{373168D5-6F22-F618-8ACE-42BFE03BDCA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId498"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6052430" y="31462182"/>
+              <a:ext cx="282342" cy="428624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>94440</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>103311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>125040</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>34217</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId499">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1296" name="Ink 1295">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBB56D3-EE2F-74DD-1534-D54892A5D0E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7866840" y="31503154"/>
+            <a:ext cx="30600" cy="110520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1296" name="Ink 1295">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBB56D3-EE2F-74DD-1534-D54892A5D0E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId500"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7860720" y="31497034"/>
+              <a:ext cx="42840" cy="122760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33840</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>82071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>61560</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>24137</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId501">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1297" name="Ink 1296">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53EF9F9-09A9-A259-7D24-53A787EF5708}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9101640" y="31481914"/>
+            <a:ext cx="27720" cy="121680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1297" name="Ink 1296">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53EF9F9-09A9-A259-7D24-53A787EF5708}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId502"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9095520" y="31475794"/>
+              <a:ext cx="39960" cy="133920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>637380</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>26374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47640</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>134014</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId503">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1298" name="Ink 1297">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21211BB2-7B32-E664-6CFD-C4C3A2C0DBE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7762080" y="32144674"/>
+            <a:ext cx="57960" cy="107640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1298" name="Ink 1297">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21211BB2-7B32-E664-6CFD-C4C3A2C0DBE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId504"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7755960" y="32138554"/>
+              <a:ext cx="70200" cy="119880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>553380</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>64534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>574260</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>5880</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId505">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="1299" name="Ink 1298">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BCB2BD-BADF-3633-5C1C-48CF8BFD88BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8973480" y="32182834"/>
+            <a:ext cx="20880" cy="120960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1299" name="Ink 1298">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BCB2BD-BADF-3633-5C1C-48CF8BFD88BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId506"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8967360" y="32176714"/>
+              <a:ext cx="33120" cy="133200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>163701</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>25258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1300" name="Picture 1299" descr="A black and grey math equation&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121D61B6-68EE-38EB-2C61-A18AFB5BF996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId507"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1725386" y="32238042"/>
+          <a:ext cx="2972215" cy="623973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>156898</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>127319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1301" name="Picture 1300" descr="A black text on a pink background&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDDB67D-D457-646D-F275-31B7E417271C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId508"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1709057" y="31574014"/>
+          <a:ext cx="2981741" cy="671605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19518,6 +23051,153 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink225.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:29:21.867"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">76 85 272,'0'0'7972,"5"-3"-7044,-1 3-5810</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1335.94">322 38 3201,'0'0'9231,"3"-5"-8316,0 0-593,-2 4-206,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1-4 3922,-27 6-3633,21 1-401,1 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 1-1,0 1 1,0-1 0,0 1 0,0 0-1,1 0 1,-8 6 0,-54 54 92,49-45-105,3-4 73,2 1 0,-1 1-1,2 0 1,0 0 0,1 1-1,1 1 1,0 0 0,1 0-1,1 0 1,1 1 0,1 0-1,0 0 1,2 0 0,-3 39-1,2-20 59,1-21-65,1 0 1,1 0-1,1 0 1,2 18-1,-2-31-33,1 0-1,-1 0 1,1-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,1 0-1,0-1 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,1-1-1,-1 0 1,7 3-1,2-1 41,1 0-1,0-1 1,0 0-1,0-1 1,0-1 0,0 0-1,0-1 1,0 0-1,0-1 1,0 0-1,0-1 1,0-1-1,0 0 1,-1-1 0,1 0-1,-1-1 1,19-10-1,-20 10-40,0-1-1,0-1 0,0 0 1,-1 0-1,0-1 0,-1 0 1,0-1-1,0 0 0,0 0 1,-1-1-1,-1 0 0,0-1 1,0 1-1,-1-1 1,0-1-1,-1 1 0,-1-1 1,5-17-1,-7 24-1,-1 0 0,0 0-1,-1 1 1,1-1 0,-1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,0 1 0,-1-1 0,-2-6 0,3 8-10,-1 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,-1 1 0,-2 0 0,-12-2-14,0 2-1,0 0 0,-1 1 1,1 0-1,0 2 1,0 0-1,0 1 0,1 1 1,-20 7-1,-11 9 17,-81 49 1,92-49 11,36-20-27,33-7 71,13-9-36,0 2-1,1 2 1,48-5 0,-62 12-14,-3 0-38,-1 2 0,1 1 0,31 2 1,-57-1 16,0 1 0,-1-1 1,1 1-1,0 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 1,1 0-1,-1 0 0,0 5 1,0-2 10,0-1 0,0 0 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 0 1,-1 0-1,0 1 0,0-1 0,-1 0 1,1-1-1,-1 1 0,0 0 0,0-1 1,-4 4-1,-2 0 16,0-1 0,0 0 0,0 0 0,-1-1-1,0 0 1,0-1 0,-1 0 0,1-1 0,-1 0 0,0-1 0,0 0 0,-1-1 0,1 0 0,-15 1 0,25-4-130,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-3 0,-1-4-1814,-10-11-4183</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink226.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:29:24.893"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">22 227 3858,'0'0'7635,"0"-5"-6330,0 4-1095,0 0 0,-1-1 1,2 1-1,-1 0 0,0-1 1,0 1-1,0 0 0,1-1 1,-1 1-1,0 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,2-2 1,30-13 1035,90-31-795,199-64 91,-255 91-500,-64 19 44,-15 1 79,-9 4-160,1 1 0,0 0 0,0 1 0,0 2 0,-27 13 0,1-1-5,-20 8-18,-1-3 1,-1-3 0,-103 20-1,186-44-135,7-1 153,0 0 1,39-13-1,-27 4 22,34-13 12,0 3-1,116-22 1,-179 43-32,-22 4-1,1 0-1,-1 0 1,1 2-1,0 0 0,0 1 1,-30 15-1,1-1-3,7-7 1,76-8-1447,27-5-2801,-29 0-456</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink227.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:29:29.550"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">261 1 1505,'0'0'6883,"9"0"-8500,0 0 945,0 0-817,0 0-3121</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1656.9">497 34 4034,'0'0'9930,"-36"-5"-7110,28 7-2805,-1 0 0,0 1 0,1 0 0,-1 1 0,1 0 0,0 0 0,0 1 0,1 0 1,-1 0-1,1 0 0,-8 9 0,-18 11 33,-37 14 471,49-29-316,0 2-1,-23 16 0,27-13-136,1 0-1,1 0 1,0 2-1,-19 29 1,24-31 71,1 0 0,1 1-1,0 0 1,1 0 0,1 1 0,1 0 0,0 0-1,1 0 1,1 1 0,0 0 0,2-1-1,0 1 1,1 0 0,2 19 0,1-26-116,0 0 1,1-1-1,1 1 1,-1-1 0,2 0-1,-1 0 1,1 0-1,1-1 1,0 0 0,14 14-1,-15-18-9,0-1-1,1 1 1,0-1-1,0 0 1,0-1-1,0 0 1,1 0-1,0-1 1,-1 0 0,1 0-1,10 1 1,9-1 95,53-2 1,-35-1-67,-32 1 16,0-2 0,0 1 0,0-1-1,-1-1 1,1-1 0,-1 0 0,16-7 0,80-46 640,-77 39-683,-27 16 14,-1-1-1,1 1 1,-1-1 0,0 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,0-7 0,1-5 39,-1 0 1,-1 0 0,0-21-1,-1 29-76,-1 7 8,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-41-2-79,39 2 76,-24-1-4,0 2 0,0 1 0,0 1 0,-43 10-1,-272 68 170,343-81-185,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 1-1,-1-1 1,1 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,-1 1 1,1-1 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,17 7-3198,4-4-1595,-2-2-3444</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink228.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:29:54.999"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">179 32 5955,'0'0'9332,"-2"-6"-7897,1 5-1366,1 0-34,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 2 0,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 1,-1 1-1,-11 12 122,1 0 1,1 2-1,0-1 1,1 1-1,0 1 1,2 0 0,0 0-1,-10 30 1,10-19-34,1 0-1,1 0 1,2 0 0,1 1 0,0 31 0,3-58-122,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 1,1-1-1,-1 1 1,1-1-1,-1 1 0,1-1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 1,0-1-1,4 0 1,-2 1 9,0 0 1,1-1 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1-1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0-1-1,0 0 1,7-3 0,-8 3 6,0 0 1,0 0-1,-1 0 1,1-1-1,-1 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 0,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,0-1-1,1 1 0,-2-6 1,0 8-23,1 0 1,-1 0-1,0 1 0,0-1 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 1,0 0-1,0 0 1,0 0-1,-2 0 0,-26 5-208,23 0-7,1 0 0,-1 0 0,1 0 1,1 1-1,-1 0 0,1 0 0,0 0 0,1 0 1,-1 1-1,-2 8 0,-4 9-4245</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink229.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:29:51.931"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">217 196 1056,'0'0'10525,"0"-10"-9690,0-109 3861,0 59-1699,0 54-2507,0 25-1120,0 305 1180,0-324-340,0-6-6420,0-3-49</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="849.69">145 672 3954,'0'0'6093,"-2"-15"-787,1-21-2992,4 30-2196,0 0 0,1 0-1,-1 0 1,1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 1-1,0-1 1,0 1 0,1 0 0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 1-1,0 0 1,1 0 0,-1 0 0,12-1 0,-17 3-115,0 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 0,0 2 0,2 33 53,-3-30-31,2 2 2,-1 1-1,0-1 1,0 1 0,-1 0 0,0-1 0,0 1 0,-1-1-1,-1 0 1,1 1 0,-1-1 0,-1 0 0,1 0 0,-1-1 0,-1 1-1,-7 10 1,-8 8 19,-2-1 0,0-1-1,-1 0 1,-1-2 0,-1-1 0,-34 21-1,59-41-38,-1-1 0,1 0 0,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0-1,-1 0 1,0-1 0,-2-19 20,4 17-32,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,1 1 0,-1-1 0,1 1-1,3-6 1,0 5 5,-1 1-1,1 0 1,0 1-1,0-1 1,1 1-1,-1 0 1,0 0-1,1 1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 1-1,0 0 1,6 1-1,-8-1 11,0 0 1,0 0-1,0 1 0,0 0 1,1-1-1,-1 2 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 1 1,0 0-1,-1 1 0,1-1 1,-1 1-1,0-1 0,0 1 1,0 0-1,0 0 0,3 5 1,-4-2-64,0 1 0,-1 0 0,0 0 0,-1 0 1,1-1-1,-1 1 0,0 0 0,-3 12 0,2 7-1878,0 0-1812,-3-1-1163</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1422.3">87 1204 7235,'0'0'10208,"-1"-4"-9163,0 0-977,0 1 1,1 0-1,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,6-1 0,-7 2-66,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 2 1,0 1-1,1 0 0,-2 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-5 8 0,-46 51 100,39-50-226,2 0 0,0 1 0,-11 17 0,23-31-242,10-1-709,22-1 976,-18 0 78,0 1 1,0 0-1,-1 0 0,1 2 0,19 4 1,-30-6 28,0 1 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 1 1,-1-1-1,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,-1 1 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,-1-1 0,1 1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 5 1,-1-6 54,1 1 0,-1 0 0,0 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,-1-1 1,0 1-1,1-1 0,-1 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,-1-1 0,-2 2 0,-68 30 720,52-25-731,-16 4-645,20-10-5169,9-2 1411</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1935.58">3 1716 6739,'0'0'10648,"-3"10"-10216,5-8-402,0-1 0,1-1 0,-1 1 0,0 0 1,1 0-1,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,3-2 0,2-1 153,-1 0 1,0-1-1,0 1 0,-1-1 0,9-10 1,-12 56-113,1-21 47,-2 48 508,-2-50-399,1 1 0,1-1 0,0 1 0,1-1 0,1 1-1,8 24 1,7-19-752,-5-9-7516</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2309.46">266 2052 10677,'0'0'5736,"-12"6"-4984,-37 20-71,46-24-617,0 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,1 1 1,0-1-1,-1 1 0,2-1 1,-1 1-1,0-1 0,1 1 0,-1-1 1,1 1-1,0 0 0,1 3 1,-1-1-43,1 0 0,0 0 1,0 0-1,1 0 0,-1-1 1,1 1-1,0 0 1,1-1-1,-1 0 0,1 1 1,5 6-1,5 3 124,1-1 0,0 0 0,1-1-1,1-1 1,21 14 0,-36-21 20,-13-1-314,-12 0-2159,8-5-1249,2-6-1254</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2478.75">244 2139 2977,'0'0'7892,"93"-87"-6179,-48 57 528,-1 2-16,-4 5-881,-4 8-207,-14 4-833,-8 9-160,-10 2-144,-4 15-5266,-18 11-3586</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -19557,6 +23237,292 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink230.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:29:56.648"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 79 5859,'0'0'7531,"0"-11"-6080,-3-36-346,0 27 1496,0 25-1796,-1 24-924,-9 300 604,13-320 465,0-12-1610,9-25-8444,4 15-1624</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink231.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:29:57.348"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">384 360 7459,'0'0'2916,"-19"0"-1851,-60-2 82,73 2-1006,0 0 0,1 0 0,-1-1 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1-1 1,0 0-1,0 1 0,0-1 0,0-1 0,0 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 1,0 0-1,0-1 0,0 1 0,1-1 0,0 1 0,0-1 0,0-11 0,0 6-98,1-1 0,0 0 0,1 0 0,0 1-1,1-1 1,0 0 0,1 1 0,0 0 0,1 0 0,1 0 0,-1 0-1,2 0 1,-1 1 0,11-14 0,-13 20-55,0 0 0,0 0-1,1 1 1,-1 0 0,1-1 0,-1 1 0,1 0 0,0 1 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1-1,1 0 1,8-1 0,-13 2 9,1 0 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 0,0 1 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,-1 0 1,2 29-26,-1-23 26,-1-2 13,0 0 1,0-1-1,-1 1 0,1 0 0,-1-1 1,0 1-1,0-1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,-1-1-1,1 0 0,-1 1 1,-7 4-1,-12 8 130,-46 26 0,52-33-116,1 0-26,1 1 1,1 0 0,0 1 0,-17 15-1,27-22-24,0 1 0,0-1-1,0 1 1,0 0 0,1 0-1,0 0 1,0 1 0,0-1-1,1 1 1,0-1 0,0 1-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 6-1,2-11 21,0 0 0,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0-1,2-1 1,39-1 57,-39 2-51,20-4 170,-1-1-1,1-1 1,-1-1-1,-1-1 1,1 0-1,-1-2 1,-1-1-1,0 0 1,0-2-1,-1 0 1,17-16-1,-4-7 1492,-31 35-1854,7 2-6739,-3 4 502</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink232.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:29:57.780"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 91 4834,'0'0'12982,"14"-15"-12323,47-43-469,-58 56-175,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 1,0 1-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 0,-1 1 1,1-1-1,-1 1 1,0 0-1,1 0 0,-1 0 1,4 4-1,-4-3 2,0 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,0 0 1,-1-1-1,1 1 1,-1 0-1,0 0 1,0-1-1,-1 1 0,1 0 1,-1-1-1,0 1 1,0 0-1,-3 6 1,0 0 150,0 0 1,-1-1 0,0 0 0,-1 1 0,0-2 0,0 1-1,-1-1 1,-12 13 0,19-21-161,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0-1-1,25 1 140,31-7 12,7-10 16,0-3 0,96-44 0,-146 61-832,-19 10-1364,-19 13-3662,-17-2-6845</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink233.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:30:00.975"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 59 5731,'0'0'12176,"-1"-9"-11333,-2-40 1006,-11 119-1977,7-5 231,-8 135 453,15-199 12,10-3-9919,-5 1 7270,16-4-5320</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink234.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:30:01.924"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">174 347 10981,'0'0'2473,"-17"-3"-1166,-55-9-146,68 10-1065,0 1 1,0 0-1,0-1 0,0 0 1,0 0-1,0 0 1,0 0-1,1-1 0,-1 1 1,1-1-1,0 0 0,-1 0 1,1 0-1,1-1 0,-1 1 1,0-1-1,1 1 1,0-1-1,0 0 0,0 0 1,0 0-1,1 0 0,-2-5 1,0-6 55,0 1 1,1-1 0,0 1 0,2-28-1,0 35-117,1 0-51,0 0 0,0 0-1,1-1 1,0 1 0,1 1 0,-1-1 0,1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,1 0-1,-1 0 1,1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,1 1-1,-1 0 1,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,12 0 0,-18 5-12,0 0-1,0 0 1,0 0 0,-1 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,-2 3 0,-1 2 20,0 1 0,0-1 0,-1 0 1,-1 0-1,1 0 0,-1 0 0,-1-1 0,0 0 1,0 0-1,0 0 0,-1-1 0,-11 9 0,9-8-60,1 1 0,0-1 0,0 1 0,1 1-1,0 0 1,1 0 0,0 0 0,-7 17 0,12-25 55,1-1 0,-1 0 0,1 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1-1,1 0 11,1 0 0,-1-1-1,1 1 1,-1-1-1,1 0 1,0 0 0,-1 0-1,1 0 1,0-1-1,7 1 1,3-1 36,0-1 0,0 0 1,-1-1-1,1 0 0,20-6 0,-10-3 320,-1 0 0,0-2 0,0-1 0,25-20 0,-39 28-242,11-1-1683,-7 8-4302,0 3-1231</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink235.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:30:02.364"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">130 144 2385,'0'0'14799,"2"-17"-13321,11-52-358,-12 66-1076,0 0-1,1 0 0,-1 0 1,1 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 0,0 1 1,0 0-1,3-2 0,3 1-34,-1 0-1,0 0 1,1 1-1,-1 0 0,12 0 1,-18 1-12,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,0 0-1,0 0 0,2 1 0,1 30-32,-4-20 45,-1 0 1,-1 0 0,1 0-1,-2 0 1,0-1 0,0 1-1,-1-1 1,-1 1 0,0-2 0,0 1-1,-12 16 1,14-21-1,0 1 0,0-1-1,1 1 1,-1 0 0,2-1 0,-1 1 0,-1 11-1,3-15-15,-1-1-1,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 1,1 0-1,-1 0 0,1-1 0,0 1 0,2 2 0,33 13-152,-31-15 102,-1 0 0,1 0 0,0 1 0,-1 0 0,0 0 1,1 0-1,-1 1 0,-1-1 0,1 1 0,5 6 0,-9-9 53,-1 0 1,0 0-1,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-2 1 0,-37 16 368,33-15-251,-52 19 696,-95 41-537,116-45-2241,2-8-2705</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink236.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:30:29.626"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">97 175 2417,'0'0'9959,"-15"-5"-9390,-45-18-119,59 23-378,0-1 0,-1 1-1,1-1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1 0,0-1-1,0 1 1,0-3-1,0 1-19,1 0-1,-1 1 0,1-1 0,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,3-3 0,4-4-15,0 1-1,1 0 0,0 1 0,0 0 1,1 0-1,0 1 0,0 1 1,21-11-1,-30 18-75,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,-1 1 0,2 41 95,-2-34-116,2 31 108,-2 0 0,-2 0-1,-2-1 1,-14 57 0,12-73-48,2 0-1,0 0 1,2 0-1,0 0 1,2 0-1,0 1 1,2-1 0,4 28-1,-4-45-9,2-1 1,-1 1-1,1-1 0,-1 0 1,1 0-1,1 0 0,-1 0 1,1 0-1,0-1 0,0 0 1,0 1-1,1-2 0,-1 1 1,1 0-1,0-1 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 0,0-2 1,0 1-1,0 0 0,0-1 1,0 0-1,0-1 0,6 0 1,-11 0 61,1 0 0,0-1 1,-1 1-1,1 0 0,-1-1 1,0 1-1,1-1 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,-1 0-1,1 0 1,-1 0-1,1-3 0,1-10 650,-5 23-394,-36 120-286,27-51-1,-7 140 0,20 81-27,-1-292 6,50 465-478,-21-266 462,-19-136 31,0 10-12,2 90 1,-13-168 5,1 1 0,-1-1-1,0 1 1,0-1 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1-1 0,1 1 0,-1 0 0,1-1-1,-1 0 1,0 1 0,-2-1 0,-50 11-13,44-10-49,-83 9-4748,61-10-1654</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink237.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:31:50.080"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">172 288 9060,'-1'-4'14269,"-3"-21"-14091,18-162 59,-24 160-172,10 27-65,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 1,-1 0-1,1-1 0,0 1 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1 0 1,-23 34-47,2 1 0,2 1 0,1 1 0,-21 65 0,31-76 49,1 0 0,1 1 0,2 0 0,0 0 0,2 0 0,1 0 0,6 56 0,-5-78-5,1 0 0,0 0 1,1 1-1,-1-1 0,1 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,1-1 0,-1 1 1,1-1-1,-1 0 0,2-1 1,-1 1-1,0 0 0,1-1 1,0 0-1,0 0 0,0-1 1,0 1-1,1-1 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 0-1,0-1 0,0 1 1,0-1-1,13 0 0,-7-1 11,-1-1-1,1 0 0,0-1 0,0 0 1,-1-1-1,1 0 0,-1-1 0,0-1 1,0 1-1,0-2 0,-1 1 0,0-2 1,0 1-1,0-1 0,-1-1 0,0 0 1,-1 0-1,1 0 0,-2-1 0,11-15 0,-6 10-2289,12 7-6337,-11 7 2854</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="718.92">627 46 6835,'0'0'8433,"-3"-6"-7075,-9-18-443,9 19 723,3 31-1606,-18 327 473,14-257-330,2-53-68,4 81 0,-1-121-95,-1-1 1,1 0-1,-1 1 0,1-1 0,0 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,4 0 0,0 0 19,1 0 0,-1 0-1,1-1 1,-1 0 0,0 0-1,0-1 1,1 1 0,-1-1-1,0-1 1,0 1 0,8-6-1,12-10-296,37-33 0,-53 42-608,-1 0-1,0-1 1,0 0 0,-2 0 0,1 0 0,9-19 0,-11 6-2746,-5 2-1591</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="914.57">693 402 6211,'0'0'8500,"-4"0"-8500,8-5-64,14-5-48,4 0 112,1-3-529,-1 0-895,-4-4-1570,-5-4-2416</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1179.51">582 89 4562,'0'0'7796,"27"0"-7492,26-13 112,10-9-336,-1 1 256,-9 3-336,-4 6 32,-22 9-64,-5 3-400,-17 0-1329,-5 13-1728,0 2-833</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink238.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:31:54.676"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 59 4770,'0'0'7609,"-2"-7"-6985,-2-3-332,3 6-45,-1 1 0,1-1-1,0 0 1,0 0 0,1 1 0,-1-1 0,1 0 0,0-7 709,27 76-833,-16-22-34,-1 1 1,5 60 0,10 51-7,-21-139 3,0 1 0,-2 0 0,2 31 0,-22-71 277,5 2-440,2-1 1,0-1-1,1 0 0,1 0 1,1-1-1,-10-48 1,10 21 4,3 0 0,0-69 0,5 118 61,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,3 0 0,0-1-9,0 1 0,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,8-1 1,-1 2-31,0-1-1,0 1 1,0 1-1,1 0 1,-1 0 0,11 3-1,-19-2 43,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,-1 0 1,1 5 0,1 6-46,0 1 0,-1 0 0,-2 25 0,0-15 33,0-17-160,0 0 0,0-1 0,-1 0 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-8 6 0,7-7-158,0 1 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 1 1,1 0-1,0-1 0,0 1 0,0 1 1,1-1-1,-1 0 0,2 1 1,-1-1-1,-1 10 0,3-10-5078</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1193.31">348 273 4562,'0'0'7750,"12"-4"-7344,38-10-201,-48 14-194,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,0 0 1,1 0 0,-1-1 0,0 1-1,0 0 1,0 2 0,19 45 307,-18-41-284,-1-1-1,0 1 1,0-1 0,0 1-1,-1 0 1,0-1 0,-1 1-1,-1 10 1,2-15-19,-1-1 1,1 0-1,0 0 1,-1 1 0,0-1-1,1 0 1,-1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,-1-1 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 1 1,-5-1 0,7 0 165,0-18-34,0 13-188,1 0 0,0 0 0,0 0 1,0 1-1,1-1 0,0 0 0,-1 1 1,2-1-1,-1 1 0,1 0 0,-1-1 1,1 1-1,0 0 0,1 1 1,-1-1-1,5-3 0,11-10-224,1 1 0,22-14 1,1-1 102,-23 21 154,-19 10 13,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,-1 1 1,1-1-1,-1 0 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 1,0 1-1,0-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 0 0,0 2 1,0 46 296,-2-24-296,2-22 6,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1 0,0-1-1,1 0 1,0 1-1,-1-1 1,1 1-1,0-1 1,-1 0-1,1 0 1,0 0 0,0 1-1,1 0 1,1-1 15,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0-1-1,-1 0 1,1 0 0,0 0-1,3 0 1,3 0-7,-1-1 0,1 0 1,-1 0-1,0-1 0,0 0 0,1 0 0,-2-1 0,1 0 1,0 0-1,0-1 0,-1 0 0,12-8 0,-15 9-13,0-1 0,0 1 1,-1 0-1,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 1,-1-1-1,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,-1 0-1,0 0 0,0-10 0,-1 12-13,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,0 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1 1 1,-6-1 0,-6-2-97,-1 1 1,0 1-1,-22 0 0,29 1 17,7 0-341,2 1 334,-1-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 1 1,-1-1-1,1 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,1 1-1,25-5-179,-24 2 273,1 1 0,-2-1 0,1 1 0,0-1 0,0 0 0,-1 0 1,0 0-1,1-1 0,-1 1 0,0 0 0,-1-1 0,1 0 0,-1 1 0,1-1 1,0-7-1,1 0 630,-1-1 1,0 0-1,0-22 0,-1 25 435,4 11-353,3 16-530,6 37 27,-2 1 1,-3 0 0,2 77 0,-5-60-28,3 91 53,-9-163 40,0-4 82,0-16-74,0-15-117,1 0 1,6-41-1,-4 63-230,0-1 0,0 1 0,1 0 0,1 0 0,0 0 0,1 0 0,0 1 0,1 0 0,10-14 0,-1 14-97,-7 19-98,-8-6 249,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 1-1,-1-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 1 1,1-1-1,-2 3 0,-1 0 13,-1 0-1,0-1 0,0 1 0,0-1 1,0 0-1,-1 0 0,0 0 0,1 0 1,-1-1-1,-1 0 0,1 0 0,0 0 1,-1-1-1,1 1 0,-1-1 0,-9 1 1,-33 18 12,95-23-71,116-41-1504,-95 19-5655,-49 16 695</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink239.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:31:58.817"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9 528 3762,'0'0'5528,"-1"-10"-4813,-7-69 3308,11 76-3891,0 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,5 0 0,-9 2-120,37-11-67,1 2 0,0 1 0,0 2 0,1 2-1,54 1 1,-90 3-96,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0-1,4 2 1,-5-1-196,0 0 0,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 1 0,0-1-1,0 0 1,0 3 0,0 16-2163</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="264.78">76 676 7187,'0'0'7524,"18"-44"-7060,4 34-256,14-2-80,4-1-80,4 3 32,10-3-64,4 0-16,4 0-288,5 6-1153,-9-1-2032,-9-2-1970</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="976.13">838 138 6467,'0'0'6275,"3"0"-6090,-1-1 1,1 0-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0-1 1,3-2-1,-2-3-68,0-1 0,-1 0-1,-1 0 1,1 1 0,-1-1 0,0 0-1,-1 0 1,0 0 0,0 0 0,-2-10-1,1-9 748,1 26-491,-5 4-354,0 17-27,0 0 1,1 0-1,1 0 1,1 0-1,1 24 1,0-23 1,-1 179 197,3-107-91,-1-93-95,-1 1 1,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,0-1-1,1 1 1,-1 0-1,0-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,1 1 1,-1-1-1,-2 0 1,-25 5 141,24-5-142,14 0-84,44-3 405,0-2 0,57-13-1,-42 5-2889,0 4-4957,-60 6 1161</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -19591,6 +23557,350 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink240.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:18.981"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9 86 8676,'0'0'7710,"-1"-11"-6323,-2-6-859,0-12-120,2 2 2693,3 54-3095,1 0 0,1 0 0,15 45 0,2 14 26,-20-74-23,0-5 3,-1-1 0,1 0 1,0 0-1,1-1 0,-1 1 0,1 0 0,0 0 0,1-1 1,4 9-1,-6-13 268,1-14-200,-1 0 0,0 0 0,-1 0 1,-2-20-1,0-4-73,2-115 49,2 151-75,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,1 1 0,4 4 12,-1 1 1,0 0-1,0 1 1,-1-1 0,0 1-1,-1 0 1,0 0-1,0 0 1,0 1-1,4 16 1,8 17 34,-6-16-59,-9-21 34,0-1 0,1 1 0,0-1-1,0 0 1,0 1 0,0-1 0,3 4 0,-4-8 2,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,6-15 19,76-187-427,-79 197 424,-3 5-106,12 124-265,-15-44 744,0-48-260,0 0 0,3 0 0,0 0 0,2 0 0,12 50 0,-14-79-270,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,4-1 0,-1 1-709,0 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 1 0,8-6 0,15-18-5326</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="296.83">611 99 1697,'0'0'12576,"1"-3"-11807,1-3-668,-1 11 82,-1 28 385,-4 48 1071,0-35-266,3 50 0,2-55-965,-1-39-391,0 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1 0 0,1 0-1,-1-1 1,1 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,1 0 0,-1 1-1,3 1 1,-1-1-21,1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,7 1 0,1-1-278,0 0 1,1 0 0,-1-2-1,0 1 1,21-4 0,-31 3 70,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,-1 1-1,1-1 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 0 1,-1 0 0,1 0-1,0-3 1,6-25-6331,-8 11-923</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="479.85">651 290 5010,'0'0'10149,"-9"-5"-10149,14 0-368,17 0 0,0-2 240,5-1-1089,-9-2-3777,-5 0-1809</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="680.27">642 79 4514,'0'0'9156,"85"-49"-9028,-54 44 80,-4 5-144,-5 0-32,-4 0-32,-5 0-192,-8 0-1008,4 5-2146,-9 6-816</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1148.62">1177 125 7619,'0'0'10429,"-2"-13"-9684,-4-37-412,6 48-307,-1 1-1,1 0 1,0-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,-1 0 1,0-1-1,1 1 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 1 1,0-1 0,0 0-1,-1 1 1,1-1 0,0 1-1,-1 0 1,1-1-1,-1 1 1,1 0 0,0 0-1,-1 0 1,-2 0 0,0 0-43,1 0 1,-1 1 0,0-1 0,0 1 0,0 0-1,0 0 1,0 1 0,-6 2 0,3 1 4,-1 1 1,1 0 0,0 0-1,0 0 1,1 1-1,0 0 1,0 0 0,1 1-1,0 0 1,0 0 0,1 0-1,0 0 1,0 1-1,-3 13 1,0 1 51,1 1 0,1 0 0,1 0 0,-1 33 0,5-48-27,0 66 95,1-70-92,-1 1 0,1-1-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,1 0-1,0-1 1,5 9 0,-6-12 19,0 1 0,1-1 1,-1 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,1 0 0,0-1 1,-1 1-1,1 0 1,-1-1-1,1 0 0,0 1 1,0-1-1,-1 0 1,1 0-1,0-1 1,-1 1-1,1 0 0,4-2 1,1 0-50,-1 0 1,1-1 0,-1 1-1,0-2 1,0 1 0,9-6-1,-4 1-1618,-1-1 0,0 0 0,-1 0-1,17-21 1,-8 7-5336</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1484.74">1368 97 8180,'0'0'6397,"-11"-9"-6135,10 11-253,-1-1 1,1 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 4 1,-2 3 88,-4 20 545,1 1 0,1 0 0,2 0 0,0 0 0,5 47 0,-2-72-584,-1 0 0,1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0 0-1,0-1 0,1 0 1,-1 0-1,1 1 0,-1-1 1,1-1-1,0 1 0,0 0 1,1-1-1,-1 1 1,0-1-1,1 0 0,0 0 1,-1-1-1,6 3 0,-4-3-73,0 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0-1 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 0 1,0 0-1,-1 0 0,5-3 1,-7 4-391,0-1 1,0 1 0,0-1-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0 0,0 0-1,0 0 1,1-1 0,-1 1-1,-1 0 1,1 0 0,0-1-1,-1 1 1,1-3 0,0-12-4922</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1689.51">1346 245 10405,'0'0'6227,"76"-39"-6099,-45 34-112,-4-5 48,-1 5-64,-8 0-1345,0 0-800,-9 0-3185,-9-3-1169</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1899.74">1381 64 9332,'0'0'6067,"58"-38"-5971,-22 25 0,-5 5-96,-8 3-224,-6 5-1153,-30 3-8963</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink241.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:01.063"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18 150 6499,'0'0'7716,"0"-7"-6663,4 55-969,1 0-1,3 0 0,14 46 0,-17-76-72,-3-8 3,1-1 0,0 1-1,1-1 1,0 0 0,1 0-1,0 0 1,0-1 0,13 16-1,-18-23 371,-13-86 323,2 40-706,2 0 1,2-1-1,2 1 0,1-66 0,5 110-14,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,2 1 0,-2-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0-1,-1 1 1,1-1 0,2 3 0,-2 2 19,-1 0 1,1 0-1,-1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-2 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,0 0 0,0 0 0,-8 6 0,-74 40-1305,84-48 540</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="293.25">428 61 8436,'0'0'5122,"0"0"-5117,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,-1-1-1,1 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 1 0,0-1 0,-1 0-1,-3 3 5,-1 1 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-4 9 0,-25 52 189,26-51-147,1 1 0,0 0 0,2 0 0,-1 0 0,2 0 0,0 1 0,1-1 0,0 1 0,4 23 0,-3-36-100,1-1 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0-1 0,4 2-1,8 1-1406,0 0 1,1 0-1,-1-2 0,19 0 0,-2-1-2658</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="851.97">637 194 4482,'0'0'6809,"-8"-8"-5884,6 12-900,0-1-1,1 1 1,-1 0 0,1 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,0 1 1,1 6-1,-2 3 145,-2 95 517,2-107-658,1 0 1,0 0-1,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 1,-1 1-1,1 0 0,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,0 0 0,-2 2 0,3-3 469,5-7-656,0-1 0,0 1 0,1-1 1,0 1-1,0 1 0,1-1 0,-1 1 1,2 0-1,-1 0 0,1 0 1,0 1-1,9-6 0,31-28-1366,-44 36 1509,0 0 0,-1 0 0,1-1-1,-1 1 1,0-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0-7-1,0-20 2762,-1 28-2276,-14 52-445,5-21 120,5-9-37,0 0 1,2 0-1,-1 36 0,3-53-266,1 1-1,-1-1 0,1 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,3-1 0,13 1-5002</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1143.25">829 53 8516,'0'0'3329,"7"11"-2934,-5-8-374,56 96 1175,-52-88-1068,-1 0 0,0 1 0,0 0 0,-2 0 0,1 1 0,-2-1 0,1 0 0,-1 15 0,-2-17-110,0 0 0,-1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,-1-1-1,1 1 1,-2-1 0,1-1 0,-10 9 0,-6 13-4535,17-20-311</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1374.98">1243 224 7075,'0'0'5619,"67"-18"-5347,-49 16-272,-1 2-512,-3 0-1601,-5 0-1761</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1581.13">1230 237 4738,'-40'89'1585,"26"-81"176,10-6 80,0 1-465,4-1-127,8-2-1041,19 0 304,13 0-240,5-10-272,4-3-1056,-5 1-1393,-4-4-2097</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5429.11">1885 81 4770,'0'0'5061,"-48"-4"-1566,43 6-3442,1 1-1,-1-1 1,1 1-1,0 0 1,0 0 0,0 0-1,0 0 1,1 1-1,-1 0 1,1-1-1,0 1 1,0 1 0,0-1-1,1 0 1,-1 1-1,1-1 1,-2 8-1,0 0 100,0 0-1,1 0 1,1 0-1,0 1 1,1-1-1,0 17 0,-4 49 2152,42-78-2012,-33-1-452,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 0 0,0 1 1,0-1-1,0 0 0,3-3 0,23-28-4986,-15 4-2053</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2672.8">169 947 3858,'0'0'8156,"0"-1"-7815,-4 220 441,4-215-899,0 0 0,0-1 0,1 1 0,0-1 1,-1 0-1,1 1 0,0-1 0,1 1 0,-1-1 0,2 4 1,0-4-430,-1 0 0,0 1 0,1-1 0,0 0 0,-1 0 1,1-1-1,1 1 0,3 3 0,3 0-1911</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2982.07">214 1067 4018,'0'0'1323,"0"-17"14,0-44 236,0-72 5012,0 132-6575,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,2 0 0,42-1 46,-37 1-49,-2 0-24,0 0 0,0 1 1,0 0-1,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 1 0,9 5 0,-14-7 10,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 1 1,1 2-1,-1-2 3,0 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1-1 1,-4 4-1,-3 2-267,-1 0 1,0 0-1,-18 10 1,20-14-25,1 0 0,0 0 1,1 1-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0 0 0,1-1 1,-1 2-1,1-1 1,0 0-1,1 1 1,-4 7-1,6-7-3846</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3276.57">557 807 6067,'0'0'6648,"-5"2"-5887,0 1-740,0 0 0,0 1 1,1-1-1,-1 1 0,1 0 1,0 0-1,0 1 0,0-1 1,0 1-1,1 0 0,-3 5 1,-37 69 301,37-69-257,-4 11 111,1 0 0,1 1 1,-8 32-1,13-42-129,1-1 1,0 1-1,1 0 1,0 1-1,1-1 0,0 0 1,1 0-1,3 15 1,-3-23-55,0-1 1,0 1-1,0 0 0,1-1 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,0 0 0,1 0 1,-1-1-1,1 1 1,0 0-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,1-1 1,-1 1-1,1-1 0,6 3 1,2-1-823,1-1-1,-1-1 1,0 0 0,1 0-1,24-3 1,3-2-3379</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3526.56">749 965 8884,'0'0'4674,"-9"-3"-4722,22 3 48,5 0-96,4-2-64,-4 2-1745,-5-3-2161,-8 1 353</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3708.42">749 965 3890,'13'30'3457,"-13"-24"-3008,0 9-353,0 3 1312,0 2-703,0 0-145,0 6-352,0-3-64,0-3-96,9-2-48,0-8-992,4-10-2530</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4018.86">935 754 9732,'0'0'5558,"9"7"-4897,10 9-606,0 0 0,-2 1 0,0 1 0,22 30 0,-32-37-38,0-1-1,-1 1 1,0 0 0,-1 0-1,-1 1 1,1 0 0,-2 0-1,0 0 1,0 0 0,-1 0 0,1 25-1,-3-28-1,0 0 0,-1 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,-3 8 0,-4 2-11,0-1-1,-17 21 0,26-38-6,-12 19-371,0 0-1226,3-8-2354</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4260.66">1386 909 10517,'0'0'4050,"76"-15"-4066,-50 15-721,-3 0-1328,-14 0-2849</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4426.02">1381 1054 8452,'0'0'5298,"76"-18"-5298,-40 3-848,-1 0-3106,-8-3-1168</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10175.31">1907 153 2145,'0'0'6590,"-3"-3"-5857,0 1-803,2 1 238,-1 0 1,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,1-1 0,-1 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,1 0 0,-1-4-1,1-4 535,1-11 1772,5 21-1699,5 13-904,-6-7 143,-1 1 1,0-1-1,0 1 1,-1 0-1,1 0 0,-2 0 1,1 0-1,-1 0 1,0 1-1,0-1 0,-1 1 1,0-1-1,-1 1 1,1-1-1,-1 1 1,-1 0-1,-1 7 0,1-12-5,0-1 0,-1 1 0,1-1 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0-1 0,0 0 0,-1 1-1,1-1 1,-4 1 0,-48 16 115,46-16-93,6-2-13,17-6-9061,6-3 4042</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10374.49">2121 209 3554,'0'0'14902,"0"-25"-14437,0 30-5396,4 2-47</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10718.51">2344 107 7075,'0'0'6270,"-5"-1"-5947,5 0-311,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 1,0 0-1,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 1,0 0-1,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 2 0,-4 38 682,6-37-637,0 1 0,0-1 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 0,1 0 1,0-1-1,-1 1 0,2-1 1,-1 0-1,0 1 0,0-1 1,1 0-1,-1 0 0,1 0 1,-1-1-1,5 3 0,-4-2-7,-1-1-1,1 1 0,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 1 1,0-1-1,0 1 1,0-1-1,0 1 0,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0 5-1,0-3-605,-3 23 2019,-4-17-3918,-4-7-6146</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10958.73">2384 153 4290,'0'0'6278,"2"-15"-4200,8-46-320,-9 59-1635,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0 0,1 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 1 0,0-1-1,1 1 1,-1-1 0,0 1-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,5 0 0,3-1 209,18-6-171,0 1 1,1 1-1,0 2 0,46-2 0,-73 6-1538,-5 14-3215,-17 7 71,19-20 4347,-29 19-5855</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13618.31">2067 850 6515,'0'0'5683,"-2"-4"-5035,2 3-472,-1 0-94,1 0 1,0 0 0,0 0-1,-1-1 1,1 1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1-1,-2-2 1,2 3-73,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 1-1,1-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0 0 1,-1 3-1,-13 27 28,14-30-35,-19 67 114,19-63-113,-1-1 0,2 1 0,-1 0 1,1-1-1,0 1 0,0 0 0,0-1 0,1 1 0,0 0 0,2 8 0,-2-12 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,3-2 0,0 2 9,0 0 1,0-1-1,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 1,-1 0-1,0 0 0,6-4 0,-4-3 21,1 0 0,-1 0 1,-1-1-1,0 1 0,0-1 0,-1 0 1,0-1-1,0 1 0,-1-1 0,-1 1 1,0-1-1,0 0 0,-1 0 0,-1 0 1,0 0-1,0 0 0,-4-20 0,4 29-21,-1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 1 0,0 0 1,1 0-1,-5-2 1,6 3-60,-1-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 1 0,-1 16-3565,1 0-1612</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13821.11">2308 911 11429,'0'0'7588,"0"-20"-7700,0 25-5315,4 3-383</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14181.74">2531 703 8468,'0'0'5909,"-14"3"-5621,-43 12-61,55-14-218,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1 0-1,1 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 4 0,0 37 41,1-32-46,1-4 94,1 1-1,0 0 1,0-1-1,0 1 0,1-1 1,0 0-1,1 0 1,0 0-1,0 0 1,0 0-1,1-1 1,0 0-1,11 11 1,-9-9 172,0 1 0,0-1 1,-1 1-1,0 1 1,0-1-1,3 11 1,-2 24 518,-9-21-1446,2-23 526,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0-148,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1-2-1,-6-30-3294,6 29 3043,-4-36-3578</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14330.86">2513 736 2081,'0'0'7747,"40"-89"-5345,-22 71-674,4 0-847,10 0-129,8 3-240,-5 2-304,5 6-31,-4 1-177,-9 6-385,-14 0-687,-13 13-657,0 15-2337,-35 8-1200</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14732.03">1381 1663 8740,'0'0'9764,"45"-18"-9475,-9 5-289,13 0-48,-5 3 0,1 2-1473,-10 3-608,-12 5-1137,-10 0-2752</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14914.59">1434 1741 9941,'0'0'6867,"94"-25"-6867,-45 12-497,-4 6-815,-5-1-1393,-5 0-2850</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15712.17">2121 1663 9588,'0'0'7751,"-1"-1"-7615,1 1 0,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1-1,0 0 0,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 1 1,0-2-1,18-29 258,-15 27-371,0 0 0,0 0 1,-1 0-1,0 0 0,1-1 1,-1 1-1,-1-1 0,1 1 1,1-8-1,-2-56 348,-1 67-262,0 63-221,0 176 139,0-236-29,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,-3 1 0,0-1 20,1 1-1,-1-2 1,1 1 0,-1 0 0,1-1-1,-1 0 1,0 0 0,0 0 0,1-1-1,-6 1 1,9-1 49,34 0-401,-12-2 123,1-1-1,-1 0 0,1-2 1,-1-1-1,30-11 1,-50 17-433,2-2-103</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16389.1">2268 1375 6835,'0'0'6272,"-17"-10"-5554,-54-31-320,68 39-375,1 1 1,-1-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,-1 1-1,1 0 1,0-1 0,0 1 0,0 1 0,-1-1 0,-3 1-1,-7 1 47,2-1-18,1 1 0,0 0-1,0 0 1,0 1 0,0 1-1,0 0 1,0 0-1,1 1 1,0 0 0,0 1-1,-17 13 1,20-14-7,1 0-1,0 1 1,0 0 0,0 0 0,1 1-1,0-1 1,0 1 0,1 0-1,0 0 1,0 1 0,1-1 0,0 1-1,0 0 1,1 0 0,-1 0 0,2 0-1,-2 10 1,2 24 186,2 0 0,1 0 1,3 0-1,1 0 0,2-1 0,1 0 1,3-1-1,1 0 0,2-1 0,2 0 0,38 65 1,-51-97-194,1 0 0,-1-1-1,1 1 1,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-1 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,1-1 0,0 0 0,-1-1 0,1 0 0,0 0 0,0 0-1,1-1 1,-1-1 0,0 1 0,0-1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1-1 0,9-5 0,2-2 24,-1-2 0,0 0 0,-1 0-1,0-2 1,-1 0 0,-1-1 0,24-32 0,-30 34-26,-1 1 0,1-1-1,-2-1 1,0 1-1,-1-1 1,-1 0 0,0-1-1,-1 1 1,0-1-1,-1 1 1,-1-22 0,0 20-39,-1-1 1,-1 1 0,0-1 0,-2 1 0,0 0-1,-1 0 1,0 0 0,-2 0 0,0 1-1,-1 0 1,-8-16 0,-3 1-2,-1 1-1,-2 0 1,-1 1 0,-40-41 0,60 68-74,-1 0 1,1-1 0,0 1 0,-1 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1-1,-1 0 1,1 1 0,0-1 0,0 0 0,-1 1-1,1 0 1,0 0 0,0 0 0,0 0-1,-5 3 1,-1 2-705,0 0 0,0 1 0,1 0 1,0 0-1,0 1 0,0 0 0,-8 13 0,-11 17-5645</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink242.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:26.891"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 4722</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink243.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:25.884"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 1 14391,'0'0'4732,"-3"16"-4137,0 5-441,0-7 8,1 0 1,0 0-1,1 20 0,1-32-129,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,2 2-1,0-1-1,0 0 0,0 0 0,1 0-1,-1-1 1,1 0 0,-1 0 0,1 0 0,-1 0-1,8 0 1,-7-1-11,0 0-1,0 0 1,1 0-1,-1 0 0,0-1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 0-1,8-7 1,-8 2 95,0 0 0,0 0 1,-1 0-1,0-1 1,1-9-1,1 7 524,-5 46-543,0 1-382,-5 117 388,3-133-1972,-2-1 0,0 1-1,-7 20 1,2-15-2572</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.28">232 448 11349,'0'0'5163,"-16"0"-3701,-52 3-414,64-2-967,1 0-1,-1 0 1,0 1 0,1 0-1,-1-1 1,1 1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1-1 0,0 1-1,-1 7 1,2-11-81,-1 5 47,0 1 0,0-1-1,0 0 1,0 1 0,1-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,1 1 0,0-1 0,1 0 0,-1 0 0,1 1-1,0-1 1,1 0 0,-1 0 0,1-1 0,0 1-1,0-1 1,0 1 0,8 7 0,4 2 143,1-1 0,0-1 0,1 0 0,32 17 1,-49-29-223,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 1,0 1-1,1-1 0,-2-22-5544,0 5 2749,1-18-5022</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="817.98">303 866 15495,'0'0'5363,"-49"97"-4771,22-41 16,5 2-48</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink244.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:41.663"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 225 2257,'0'0'14620,"-8"-1"-12138,8 1-2469,0 0-1,1 0 1,-1 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,25-11 188,0 0 0,0 1 0,1 1 0,0 1-1,38-6 1,38 1-1103,-4 8-3894,-95 5 4527,-1 0 102,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 2 0,-1 10-3962</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="186.93">148 347 6867,'0'0'8596,"-9"5"-8516,31-5 224,9 0-288,5-7-32,8-4-576,5 1-673,-4-2-1472,-5-1-1537</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="481.52">210 1 7411,'0'0'7057,"5"2"-6942,22 12 99,1-2 0,0-2 0,44 12 0,-48-17-85,-1 2 1,0 0-1,-1 2 0,1 0 1,-2 1-1,1 2 1,27 19-1,-46-29-77,1 1-1,-1-1 1,-1 0-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 1 1,0-1 0,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,-1 0 1,1 0 0,-1 0-1,1-1 1,-1 1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0 0,0 0-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,-4 6 0,-7 8-9,0-1 1,-1 0 0,-1-1 0,-1-1-1,-20 16 1,12-10-111,-51 52-2839,47-42-548</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink245.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:40.433"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 54 9412,'0'0'7204,"0"5"-7012,0 21-48,4 4 448,-4 1-304,5 2-16,-1-2-256,5-3 16,0-6-64,4 1-992,5-7-593,4-9-1520,1-7-2802</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="231.64">321 1 7860,'0'0'7107,"-75"99"-6755,48-43 128,0 5 32,5 0-287,0-2-81,13-3-112,9-8-32,0-10-593,9-12-1488,17-14-2753,6-12-3906</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="612.1">567 85 12358,'0'0'2195,"-18"23"-1501,1-2-490,3-5-16,0 1 0,2 0-1,0 1 1,1 0 0,1 1-1,-15 38 1,11-18 236,2 1 0,1 0-1,2 0 1,2 1 0,-3 76 0,10-112-415,0 0 1,0 0-1,1 1 1,0-1-1,0 0 1,0 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 1,1 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,0-1 1,0 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,1-1 1,0 0 0,0 0-1,0 0 1,0 0-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 0 1,0 0-1,0-1 1,1 1-1,-1-1 1,0 0-1,0-1 1,6-1-1,-9 2 11,1-1-1,-1 1 0,0 0 0,1-1 0,-1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 1,-1-1-1,1 0 0,0 1 0,0-6 0,-1 6-6,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,-2-1-1,-16-2-239,0 0 0,0 1 0,0 2-1,-1 0 1,-34 2 0,7 0-7595,35-1-2044</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink246.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:39.613"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 120 5202,'0'0'8722,"-3"-3"-7599,3 3-1086,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,1 0 0,-1-1 1,0 1-1,0 0 1,0-1-1,19-1 1454,3 0-1411,149-11 444,-59 17-4946,-95 1 810,-10 5-1334</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="200.49">126 277 5202,'0'0'8644,"22"3"-8083,9-16-385,9 0-80,-4-2-96,4 0-32,5 0-1057,-10-1-1872,-8-1-977,-5 1-2145</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="479.57">291 0 4258,'0'0'7267,"4"4"-6856,49 30 598,-35-23-759,-1 0 0,0 0 0,-1 2-1,21 20 1,-33-29-207,-1 0 0,0 1 0,1-1 1,-1 0-1,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,-1 1 1,1-1-1,-1 1 0,-2 9 0,1-8-14,-2 0-1,1 0 1,-1 0 0,0 0-1,0-1 1,-1 1 0,0-1-1,0 0 1,-1 0 0,-8 7-1,6-6-242,1 0 0,0 1 0,-12 17-1,16-14-2231,3-5-2554</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink247.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:36.305"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">348 49 6275,'0'0'7537,"-4"-9"-6542,-14-23-176,13 24 352,2 52-1312,0 4-919,6 85 1,1-110-2035,4-6-1306</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="258.53">522 28 5186,'0'0'8815,"-32"54"-7673,18-28-1105,1 0 0,1 2 0,1-1 0,2 1 0,1 1 0,1-1 1,2 2-1,0-1 0,0 55 0,5-77-562,0-6 203,-1 1-1,1-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1 1 0,11 3-3992</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="646.04">660 48 5314,'0'0'5123,"-11"19"-4376,10-18-738,-20 35 634,2 0 1,-27 76-1,39-89-465,2 2-1,1-1 1,1 1-1,0-1 0,2 27 1,2-50-177,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 1,-1 0-1,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 1,0-1-1,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 1,-1 1-1,3-1 0,2 1 10,0-1 0,0 0 0,-1 0 0,1 0 0,0-1-1,-1 0 1,1 0 0,7-4 0,-9 3 38,0 1-1,-1-1 0,1 0 0,-1 0 1,1-1-1,-1 1 0,0-1 1,0 0-1,-1 1 0,1-1 1,-1 0-1,0-1 0,0 1 0,0 0 1,-1 0-1,1-1 0,-1 1 1,1-9-1,-3 11-29,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 1 0,-3-1 0,-42 4-116,38-1 28,1 0 0,-1 0 0,1 1 0,0 0 0,0 0 1,0 1-1,1 0 0,-11 9 0,-23 29-3396,21-19-1345</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2045.32">1 731 6835,'0'0'6374,"0"5"-6188,32 153 1095,-18-135-2033,3-14-2997,0-8-1656</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2284.55">272 726 8260,'0'0'6003,"-31"81"-5811,22-43 64,5 0-64,-5-2-112,4-3-32,1-2-32,4-6-32,0-4-48,0-4-1089,9-6-2112,4-11-1441</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2661.85">598 680 10853,'0'0'3743,"-11"15"-3596,-17 28 248,2 2 0,-24 55-1,41-80-218,1 0-1,1 1 1,0-1-1,2 2 1,0-1-1,2 1 1,0-1-1,1 44 1,2-62-171,1-1 0,0 1 0,0 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1-1 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 1 1,0-1-1,3 0 0,5 1-13,0-1 1,0 0-1,0 0 0,0-1 1,-1-1-1,22-4 0,-26 3-5,0 1-1,0-1 1,0 0 0,0-1-1,0 1 1,9-9 0,-13 11 26,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 1 0,0-1 0,0-2 0,-1 4 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1 0,-2 1-1,-33-1 80,30 1-118,-4 0-38,0 0 0,0 1 0,1 0 0,-1 0 0,1 1 0,-1 1 0,1-1 1,0 2-1,-1-1 0,-14 9 0,-21 22-3114,22-13-1708</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink248.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:37.540"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 173 6003,'0'0'8115,"14"-46"-7842,4 36-17,-5 5-16,0 2-160,-4 1-80,5 2 0,3 0-32,-3 0-400,8 0-849,0 0-1888,1 0-1201</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="219.19">54 254 7940,'0'0'4258,"53"-12"-4114,-13-1-144,5-2-433,0-3-1055,-5 0-1762,-5 3 241</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="481.47">192 5 6275,'0'0'4607,"3"-2"-4804,1 1 204,1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,-1 0 0,1 0 1,0 1-1,0-1 0,6 5 0,2-1 133,0 1-1,-1 0 0,23 16 1,-33-20-92,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 1-1,0-1 1,-1 1 0,1 0 0,0-1 0,-1 1-1,1 0 1,-1-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,1-1 0,0 1-1,-1 0 1,0-1 0,0 1 0,-1 3 0,-3 4-244,-1 0 0,0-1 0,-1 1 0,0-1 0,-17 16 0,9-8-1419,4-5-1856</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink249.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:24.409"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">157 311 3554,'0'0'11250,"0"-12"-10313,0-60 1733,-7 49-702,2 21-1239,3 17-697,-1 58 60,1 41-63,3-102 7,0-1 0,1 1 0,0 0 0,1-1 0,0 0 0,1 0 0,7 16 0,-6-14-7,-5-11-11,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 1,0-1-1,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 1,4 3-1,-4-4 27,26 17-5770,-15 0 626,-6 5-2806</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.47">1 1233 9716,'0'0'8834,"1"-17"-7935,5-54-339,-4 68-529,-1-1 0,1 1 0,0-1 0,0 1 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1-1,0 1 1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0-1,0 0 1,4-1 0,1 0 29,0-2-6,0 2 0,0-1 0,0 1 1,0 0-1,0 1 0,17 0 1,-24 1-52,0 0-1,0 1 1,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 0-1,1 1 1,-1-1 0,1 1 0,-1 0 0,0-1-1,1 1 1,-1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0-1,0 4 1,1 7 10,-1 0 0,-1 0 0,0 1 0,-1-1 0,0 0-1,-1 0 1,0 0 0,-1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,-1-1 0,0 1-1,0-2 1,-2 1 0,-12 13 0,14-16-14,4-6-3,1 1 0,-1-1 0,1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,1 0 0,0 0 0,-2 6-1,43-10 123,-20-2 14,0-1 0,0-2 0,-1 0 0,0 0 0,27-14 0,-26 10 15,1 2-1,0 0 1,38-8 0,-59 16-171,1-1-1,-1 1 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,1 0 0,-1 1-1,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 1 0,1-1-1,-1 0 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 1 1,0 0 0,-3 21-2357,-20 22-4301,1-14-2002</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1008.29">85 1798 7507,'0'0'12169,"3"-5"-11369,-2 2-759,1 1 1,0-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,1 0 1,0 0-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0 0-1,0 0 1,6-1-1,-1 1 18,0-1 0,0 1 1,0 1-1,0 0 0,0 0 0,0 0 0,10 3 0,-17-3-56,-1 1 0,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 1 0,-1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 2 0,-3 26 59,-3-18-45,0-1 1,0 1-1,-1-1 0,0-1 1,-1 1-1,0-1 0,0-1 1,-1 1-1,-12 8 0,-11 12 42,22-20-69,8-7-11,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,1-1 0,0 1 0,-1-1 0,1 1-1,0-1 1,-1 4 0,4-5 2,1 1 0,0-1 0,-1 1 1,1-1-1,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 1,4-1-1,0 2 2,15 3 6,33 10 2,-52-15 6,0 2 1,0-1 0,0 0 0,0 1 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,0 1 0,0-1 0,3 5-1,-4-6 7,-1 1 0,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0-1 1,-1 1 0,0-1-1,1 1 1,-1 0 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,-1 1 0,-9 5 38,-1-1 0,0 0 0,-18 6 1,12-4-36,-35 18 412,32-15-2327,0-1-4943,12-4-4333</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3015.07">718 387 1105,'0'0'17351,"9"0"-16854,18-7-145,4 2-48,4-3-80,1 3-208,-5 2-32,1 3-192,-1 0-848,-13 0-1121,-5 0 144,-13 10-2594,0 3-1103</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3201.28">771 532 6451,'0'0'10181,"49"3"-8789,1-3-591,3-18-465,14 0-256,4 0-80,-9 5-592,-8 8-2082,-23 5-943,-17 0-4323</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4755.53">2117 135 5891,'0'0'8449,"0"-8"-7417,0-39 1119,0 76-88,-1 0-1852,1-1 0,1 0 0,2 1 0,8 33 0,-10-56-200,1 5 6,1 0 0,0-1 1,1 1-1,0-1 1,0 1-1,1-1 0,0 0 1,1-1-1,10 14 1,-13-22-570,1 1 0,-1-1 1,0 0-1,1 0 1,-1-1-1,1 1 0,-1-1 1,1 0-1,0 1 1,-1-2-1,1 1 1,-1 0-1,1-1 0,-1 1 1,7-3-1,13-12-5525</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5019.16">2474 43 9636,'0'0'6427,"-4"17"-5962,-21 80 1283,8-38-1032,3 1-1,2 0 0,-6 97 1,19-156-807,-1 0 1,0 0-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 0 1,0 1-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,1 0-1,39-8-4619,-3-13-97</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5419.6">2888 0 11109,'0'0'5733,"-10"8"-5559,-14 11 116,1 2 1,1 0-1,1 2 0,1 0 1,1 1-1,1 1 1,-15 29-1,22-37-174,2 1 0,0 0 1,1 0-1,0 1 0,2 0 0,0 1 0,2-1 1,0 1-1,1 0 0,1 0 0,0 0 0,3 29 1,-1-46-111,1 0 0,-1 0 1,1-1-1,0 1 0,0 0 1,0-1-1,0 1 1,1-1-1,-1 0 0,0 1 1,1-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,1-1-1,2 3 0,1-1-9,-1 0-1,1-1 0,0 0 0,-1 0 1,1-1-1,0 1 0,0-1 1,10 0-1,-2 0 9,0-1 0,0-1 1,0 0-1,0-1 0,0 0 0,-1-1 0,17-6 1,16-14 154</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6940.09">2607 721 0,'-5'55'0,"-7"31"0,10-78 0,0-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,0 0 0,-10 11 0,-591 544 0,591-548 0,-21 16 0,-45 30 0,69-52 0,-1 0 0,0-1 0,0 0 0,-1-1 0,1 0 0,-1-1 0,0-1 0,-22 4 0,-1-1 0,-39 5 0,73-11 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-2-2 0,-27-47 0,24 41 0,0 1 0,0-1 0,1 0 0,0 0 0,-3-11 0,5 11 0,-1 0 0,0 1 0,-1 0 0,0 0 0,0 0 0,-1 1 0,-11-13 0,9 11 0,1 0 0,0 0 0,0-1 0,-5-12 0,10 19 0,0-1 0,1-1 0,-1 1 0,1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,1 1 0,-1-1 0,5-6 0,5-6 0,2-1 0,0 2 0,33-30 0,-11 11 0,28-25 0,3 2 0,96-62 0,5-5 0,-117 80 0,60-68 0,41-39 0,-135 137 0,1 2 0,1-1 0,0 2 0,1 1 0,0 0 0,1 1 0,25-7 0,-17 5 0,0 0 0,36-23 0,-51 21 0,-13 13 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,2 0 0,0 7 0,-4-6 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,13 0 13897,-38 35-13438,15-23-340,-1 1 0,2-1 0,0 1-1,0 0 1,1 1 0,1 0 0,0 0 0,1 0 0,0 0 0,1 1-1,1-1 1,0 1 0,1 0 0,1-1 0,0 1 0,1 0 0,4 17 0,-4-25-83,1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,0 0 0,1-1 0,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,0 0 0,0 0 0,0-1 0,0 1 1,13 3-1,-6-2-12,0-1 0,1-1 0,-1 0 1,1-1-1,0 0 0,-1-1 0,1-1 1,0 0-1,0-1 0,17-3 0,-26 3 9,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,-1 1 0,1-9 0,-1 5 22,0 0 0,0 1 0,-1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,0 0 0,0-1 0,-1 1 1,-10-10-1,7 10-41,1 0 1,-1 1-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1 1 1,0-1-1,-1 2 1,1-1-1,0 1 1,-1 0-1,0 1 1,1 0-1,-15 1 1,23 0-74,-1 1 0,1-1-1,-1 0 1,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 1-1,-5 28-5593,6-20-1684</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8279.99">963 1161 9044,'0'0'6891,"-6"-3"-5954,1 0-600,3 2-151,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 1,-3 0-1,42-11 187,104-1-1308,-48 16-4570,-93-3 5360,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 1 0,-8 20-3296,-18-2-1057</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8442.3">976 1304 4978,'0'0'8372,"-17"10"-7956,21-10-192,18 0 401,10 0-193,12-3-400,1-7-32,4-3-208,0 3-913,-14 3-1472,-3-4-2097</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8767.46">1102 1054 9108,'0'0'5085,"-5"-2"-4885,-9-5-179,36 9 10,41 14 165,-53-13-183,0 0-1,-1 1 0,1 1 0,-1 0 1,0 0-1,-1 1 0,1 0 0,-1 0 0,0 1 1,-1 0-1,1 0 0,-2 1 0,1 0 1,-1 0-1,0 0 0,0 1 0,5 12 0,-5-5 18,0 1-1,-1 0 0,0 0 0,-2 0 1,0 0-1,-1 1 0,0 0 0,-2-1 0,-1 25 1,-1-29-161,-1 0 1,-1 0-1,0-1 1,0 1-1,-1-1 0,-1 0 1,0 0-1,-1-1 1,0 0-1,0 0 1,-2-1-1,-16 19 1,-1-7-4507</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9529.62">2109 1016 6467,'0'0'8697,"-3"-2"-7651,2 2-1015,1 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 1 0,0-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,-5 33 553,4 56-454,2-67 124,-2-15-233,2-1-1,-1 1 0,1-1 1,0 1-1,0 0 1,1-1-1,0 0 1,5 12-1,-6-16-156,1 0-1,0 0 1,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0-1 0,0 1-1,1 0 1,-1-1 0,6 1 0,1 0-1262,1-1 0,-1 0 0,0 0 0,16-3 0,9-10-3079</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9763.38">2403 965 6259,'0'0'7910,"0"4"-7824,-3 30 516,0 0 1,-3-1-1,-15 57 1,11-56-665,2 0 0,2 0 1,-4 62-1,10-95-92,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,1 0 1,-1 1 0,0-1 0,1 1 0,-1-1-1,1 0 1,-1 1 0,1-1 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0-1 0,4 1-1587,12 0-5431</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10444.71">2773 988 4530,'0'0'6638,"-13"2"-5726,7-1-828,-1 0 30,0 1 0,-1-1 1,1 1-1,0 1 0,0-1 0,0 1 1,0 0-1,1 1 0,-1-1 0,1 2 1,0-1-1,0 0 0,-7 8 1,-1 6 253,2 0 1,-1 0 0,2 1 0,1 1-1,0 0 1,-8 28 0,13-33-201,0 1-1,1 0 1,1 0 0,1 0-1,0 1 1,1-1 0,1 1-1,0-1 1,4 20 0,-4-33-149,1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,4 1-1,-1-1-5,0 1 0,0-1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1-1 0,1 0 0,8-1 1,-10 1 6,1-1 1,-1 0 0,1 0-1,-1-1 1,1 1 0,-1-1 0,0 0-1,0-1 1,0 1 0,0-1 0,8-6-1,-11 7 11,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,0-1 1,0 0-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,-1-5 1,0 6-42,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1-1,0-1 1,1 1 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,-2 1 0,-1 0-277,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,-7 4 0,8-1-514,-1-1 1,1 1 0,0 0-1,0 1 1,-6 8 0,1 5-5016</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11191.9">878 1884 4994,'0'0'8100,"54"-25"-7380,-23 14-223,5 1-273,-1 0 0,5-3-144,-4 6-48,0 2-32,-5 5-1297,-13 0-896,-9 0-1088,-9 7-129</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11361.39">976 2047 6067,'0'0'6403,"76"-17"-6403,-36 6 128,5 4-128,4-1-817,0-2-1488,-9 5-1136</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -19624,6 +23934,319 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink250.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:48.643"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18 486 10885,'0'0'9028,"-18"-23"-9028,45 16 176,4-3 0,14-1-80,-1 4-64,-4 4-32,-4 3-464,0 0-2241,-10 0-16,-12 3-2194</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="196.47">133 586 4386,'0'0'12710,"5"0"-12774,35-5 64,14-8 0,3-2-1009,1-3-735,-9 3-1042,-13-6-2208</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="463.92">285 290 14503,'0'0'3409,"7"4"-3454,53 25 20,36 19 171,-89-43-127,0-1 0,-1 1 1,1 0-1,-1 0 0,0 1 1,0 0-1,-1 0 0,0 1 1,0-1-1,6 11 0,-10-14-16,1-1 0,-1 1 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,0-1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,-3 4 0,-3 1 108,0 0-1,-1-1 1,0 0 0,0-1-1,-1 0 1,-13 6 0,-33 23-1352,52-32 919,1-1 0,0 1 0,0-1-1,1 1 1,-1 0 0,0 0-1,1 0 1,0 1 0,0-1-1,0 1 1,0-1 0,-2 6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1063.21">820 443 12742,'0'0'3647,"1"-4"-3511,20-27 34,-18 28-83,0 0 0,0 0 0,0 0 0,-1-1-1,0 1 1,1-1 0,-1 0 0,0 1 0,-1-1-1,1 0 1,-1 0 0,0 0 0,0 0 0,1-8 0,-2 5 251,-4-63 1455,4 67-1694,-1-1-1,0 1 1,1 0-1,-1-1 0,0 1 1,-1 0-1,1 0 1,0 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,-1 1-1,-3-4 1,5 6-87,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 1,1 0-1,-4 25-187,3-23 226,-3 63-34,3 0 0,16 121 0,-8-97-705,-43-90 848,226-38 411,-119 29-929,19-4-1214,-33-1-3835,-38 6-2301</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1693.14">1091 87 3426,'0'0'8614,"-17"-11"-7405,-55-31-516,60 36-584,1 1 0,-1 0 0,1 1 0,-1 1 0,0 0 0,-1 0 0,1 1 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1 1 0,-1 0 0,1 1-1,0 0 1,-1 1 0,-15 6 0,15-3-63,0 0 0,1 1 1,-1 0-1,1 1 0,1 1 0,0 0 0,0 0 0,1 1 0,0 0 0,-16 21 0,15-14 26,1 1 0,0 0 0,1 0 0,1 1 0,0 1 0,-7 33 0,3 13 206,3 1-1,3-1 0,4 107 0,3-120-81,-1-40-183,0 0 0,1 0 0,1 1 0,0-1 0,1 0 0,0 0 0,1-1 0,1 1 0,0-1 0,0 0 0,1 0 0,14 20 0,-13-24-6,-1 0-1,2-1 1,-1 1 0,1-1 0,0-1 0,1 0 0,0 0 0,0 0 0,0-1-1,0-1 1,1 1 0,0-2 0,-1 1 0,2-1 0,-1-1 0,19 3-1,0-3-4,1-1-1,-1-2 1,1 0-1,-1-2 1,0-2-1,0 0 1,0-2-1,-1-1 1,0-1-1,37-18 0,-10 0 3,-2-2-1,-1-2 0,-1-3 0,47-40 0,-80 59 20,0 0-1,-1-2 0,-1 0 0,0-1 1,13-20-1,-22 26-6,0 1 1,0-1-1,-2-1 1,1 1-1,-2-1 1,0 0-1,0 0 1,-1-1-1,-1 1 1,1-17-1,-2 14-4,0 0-1,-2 0 1,0 0 0,0 0-1,-2 0 1,0 1-1,-1-1 1,0 1 0,-1-1-1,-1 1 1,-1 1-1,0-1 1,0 1 0,-2 0-1,0 1 1,0 0-1,-1 1 1,-1 0 0,0 0-1,0 1 1,-1 0-1,-19-12 1,16 12-2,0 2 0,-1 0 0,0 1 0,0 0 0,0 1 0,-1 1 0,0 1 0,-1 0 0,1 2 0,-19-3 0,24 5-133,0 0-1,0 1 1,0 1-1,0 0 0,0 0 1,0 1-1,0 1 0,0 0 1,1 0-1,-1 1 1,1 1-1,0 0 0,0 0 1,1 1-1,-17 12 1,-26 26-2828,-1 0-3569</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink251.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:32:42.716"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 5 8980,'0'0'9399,"0"-4"-7810,0 6-683,1 17-803,1 0 1,1 0-1,1 0 1,0-1-1,1 1 1,1-1-1,1 0 1,1-1 0,0 0-1,15 23 1,-17-28 28,7 12-2222,-5-16-5076</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1035.77">131 486 6419,'0'0'12675,"0"-8"-11578,0 6-1079,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 1 0,4-2 0,4-2 23,1 0 0,1 0 0,-1 1 0,12-3 0,16-5-14,-11 2-103,1 1-1,1 1 1,0 1-1,0 2 1,35-3-1,-67 20-5099,-13 3 956,-9 7-3434</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1398.69">318 534 8564,'0'0'10045,"-7"5"-9843,0 0-160,1 0 0,-1 1 0,1 0 0,1 0-1,-1 1 1,1-1 0,1 1 0,-1 0 0,1 1-1,0-1 1,0 1 0,1 0 0,0 0 0,1 0 0,0 0-1,0 0 1,-1 9 0,-3 22 221,2 1 0,1 56 0,3-90-251,0 1-1,0-1 0,1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,0 0 0,0 0 1,0-1-1,1 1 0,5 8 0,-5-11-11,0 0 0,-1 0 0,1 0 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,5 0-1,-6 0 14,0 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1-1 0,1 1 1,-1-1-1,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,0 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1-3-1,1 1 11,-1 1-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1-1,-1 0 1,-4-4 0,4 4-62,-1 1 1,0-1 0,0 1-1,-1 0 1,1 0 0,0 0-1,-1 1 1,1-1 0,-1 1-1,1 0 1,-1 0 0,0 1-1,1 0 1,-1-1 0,0 2-1,0-1 1,1 0 0,-6 2-1,9-2-174,0 0-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,1 1 1,-1 0-1,0-1 1,0 1-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1 0 0,0 1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3136.25">523 71 6051,'0'0'7881,"-3"-7"-6830,-9-20-237,12 27-807,0-1 0,0 1 1,0-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,0-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1-1,1-1 0,-1 0 1,1 0-1,-1 0 1,0 0-1,1 1 1,0-1-1,-1 0 25,7 2 50,-1 1 1,1-1-1,-1 1 0,0 0 1,0 1-1,0-1 0,0 1 0,0 0 1,-1 1-1,0-1 0,8 10 1,49 64 452,-40-46-368,-1 0-1,-2 2 0,-2 1 0,-1 0 0,-2 1 0,-1 0 0,12 58 1,-20-70-248,-2 0 1,0 0 0,-2 0 0,0 0 0,-2 0 0,-1 1 0,-1-1 0,0-1 0,-2 1 0,-1 0 0,-1-1 0,-1 0 0,-12 24 0,7-22-618,0-1 1,-2-1-1,-1 0 1,-29 32-1,33-42-321,0-1 0,-2-1 0,1 0 0,-29 18 0,-19-1-3778</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3663.81">51 158 7187,'0'0'5792,"0"-9"-4951,0 6-888,2-26 982,-3 23-374,-2 22-399,-15 81 408,8-50-150,2 1 0,-3 51 0,10-54-268,1 1 0,2 0 1,11 63-1,-9-91-132,1 0 0,0-1 0,2 1 1,0-1-1,0 0 0,2-1 0,0 0 0,1 0 1,0-1-1,1 0 0,17 17 0,-14-19-406,2 1 0,-1-2-1,1 0 1,1 0 0,0-2 0,1 0-1,0-1 1,0-1 0,1 0 0,0-2-1,0 0 1,0-1 0,39 4-1,14-6-3849</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4544.05">1164 181 8020,'0'0'6040,"-17"1"-5701,-59 7-9,72-7-293,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1-1,0 0 1,-2 4 0,0 2 112,0-1-1,1 1 1,0 0-1,0 0 1,-1 16-1,2-13-13,1 1 0,0-1 0,1 0-1,1 1 1,3 19 0,-3-27-112,1 0-1,0 0 1,0 0-1,1-1 1,-1 1-1,1-1 1,0 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,0-1-1,0 0 1,6 5-1,-2-3-8,0-1 0,0 0 0,1 0 0,0 0 0,-1-1 0,1-1 0,1 0 0,-1 0 0,10 2 0,4-2 19,-1 0-1,39-1 1,-60-2-26,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,0-1 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0-1 1,-1 0 13,1 1 1,0-1-1,-1 0 0,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 1 1,0 0-1,0 0 0,-1-1 1,-1 0-1,0 1-21,0-1 0,0 1 1,1 1-1,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 1,0-1-1,1 1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,-2 1 1,2 0-210,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,1-1 1,-1 1-1,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 1,-2 6-1,-2 20-3772</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5286.19">1272 38 9893,'0'0'8627,"0"-10"-8562,-14 38-33,-8 13-16,-9 15 32,-14 10 16,-4 5-48,-9 6-32,-4 7-1889,0-5-704,4-8-4051</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5524.1">443 822 11589,'0'0'8228,"-67"31"-8196,27 30-32,0 8 0,0 5-288,9 2-2401,-1-7-1345</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink252.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:34:55.654"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">161 14 4386,'0'0'14964,"0"-1"-14803,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-2-2 0,0 5-124,0-1 1,0 1-1,1 0 1,-1 1-1,0-1 1,1 0-1,0 1 1,0-1-1,0 1 1,0 0-1,1-1 1,-3 8-1,-11 50 263,9-29-165,1 1 1,2 0-1,2-1 1,2 41-1,0-68-125,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0-1,0-1 1,1 1 0,0 0 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1-1,0 0 1,7 1 0,0 1 19,0-1-1,1 0 1,-1 0-1,1-2 1,0 0-1,-1 0 0,1-1 1,0 0-1,22-5 1,-27 3-8,0 0 0,0-1 0,0-1 0,0 1 0,-1-1 1,1 0-1,-1-1 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,-1-1 0,1 1 1,-1-1-1,0 0 0,6-11 0,-5 6-12,1-1-1,-2 0 1,0 0 0,0 0-1,-1-1 1,-1 0 0,0 0-1,-1 0 1,1-24 0,-3 33 17,0-1 0,1 1 0,-2 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-10-2 0,-9-1-17,-1 0 1,1 2-1,-1 1 1,0 1-1,0 0 1,-47 5-1,60-1-76,1 1 0,0 0 0,0 1 0,0 0-1,0 0 1,1 1 0,0 0 0,0 1-1,0 0 1,0 0 0,-14 15 0,-22 14-4300,19-20-2001</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink253.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:34:51.065"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 2 8084,'0'0'5552,"0"0"-5546,0 0-1,-1 0 1,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-2 6 103,0 0-1,1 0 1,0 1 0,1-1 0,-1 0-1,1 0 1,2 14 0,-1 25 646,-17 447 2761,8-500-2913,-5-96-452,3-203 0,10 281-122,0 17-23,0 0-1,1 0 1,1 0 0,-1 0 0,1 1 0,1-1-1,-1 0 1,1 1 0,1 0 0,-1 0-1,6-8 1,-7 11-9,1 1 0,0-1 0,-1 1 0,2-1-1,-1 1 1,0 0 0,0 0 0,1 0 0,0 1-1,0-1 1,-1 1 0,1 0 0,0 0 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1 0 0,0 0 0,9 0-1,-11 1-4,0 1-1,0-1 0,-1 1 1,1-1-1,0 1 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,-1 0 0,1 0 1,-1-1-1,0 1 0,1 3 1,4 59 102,-6-58-101,2 24 24,0-16 6,0 1 0,-1 0 1,-1-1-1,0 1 0,-1 0 0,-1-1 0,0 0 1,-1 1-1,0-1 0,-11 22 0,9-26-62,-4 11-363,11-20 388,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,2 0 0,2 1 4,0 1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 1-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 1 1,0 0-1,0 0 1,-1 0-1,0 0 1,1 0-1,-2 0 1,1 0-1,0 1 1,-1-1 0,0 1-1,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,-2 9-1,0-12 23,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0-1 1,-1 1 0,1-1 0,-1 0-1,0 0 1,1 1 0,-1-2 0,0 1-1,0 0 1,0-1 0,-1 1 0,1-1 0,-5 1-1,-71 17 264,68-17-215,-60 3 115,72-20-3054,14-7-2314,17-5-2302</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="352.14">406 328 6659,'0'0'10183,"0"13"-9545,-3 32-223,1-33-357,1 0 1,0-1-1,1 1 1,0 0-1,4 22 1,-3-32-54,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,4 1 0,57 0 103,-57-1-108,-2-1 8,-1 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0-1-1,-1 1 1,1-1-1,0 0 0,0 0 1,-1 0-1,1 0 1,-1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,-1 0 1,0 0-1,0-1 1,0 1-1,0 0 1,-1 0-1,1 0 0,-1-6 1,1 4 49,0-1 0,-1 1 1,0-1-1,0 1 0,-1 0 0,1-1 0,-1 1 1,0 0-1,-1 0 0,1-1 0,-1 1 0,0 0 1,0 0-1,-1 1 0,1-1 0,-1 0 1,0 1-1,-1 0 0,-3-5 0,-31-13 368,21 22-1636,16 1 988,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,0 0 0,1 1 0,-1 8-5138</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1009.29">713 71 10229,'0'0'7307,"1"18"-7184,1 26 97,4 295 1313,-7-333-1518,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,0 0-1,-1-1 1,1 1 0,-1-1-1,0 1 1,-5 6 0,5-9 9,1 0 1,-1 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-5-1 0,8 0-16,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,5-39-90,1 28-294,2 0 0,-1 1-1,1 0 1,1 0 0,0 1-1,1 0 1,20-18 0,8-10-970,-24 24 842,-1-1 0,-1 0 0,18-32 0,-11-4 981,-12-9 3609,-21 78-2199,5 4-1854,1 1 1,1 0-1,1 0 1,1 0-1,-3 36 1,2 115 143,6-146-174,0-25-3,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,1 0-1,-1 0 1,1 0-1,-1 1 1,4 0-1,-3-2 5,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,2-2 0,5-5 6,0 0 1,-1-1-1,0 0 1,-1-1-1,0 0 1,6-14-1,-5 10 30,1 1 0,19-26 0,-28 40-44,0 0-1,1 0 1,-1 0-1,0 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,1 1 0,-1-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 1 0,0-1 1,0 0-1,0 1 1,0 0-1,8 26-33,-7-23 42,1 1-103,3 12 175,0 0 0,2-1 0,13 28 0,-17-39-356,1 0-1,-1 0 0,1-1 0,0 1 0,0-1 0,6 5 0,-6-6-423,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 1,1-1-1,7 3 0,35 2-8457</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1640.54">1538 78 9220,'0'0'10893,"-2"7"-10677,-8 26 187,2 0 0,1 1-1,-5 65 1,7 112-1686,5-184 600,0-27 544,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 0,0-1 1,1-3-104,0 0 0,-1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,-1 0 1,0 1-1,0-1 1,0 1-1,-3-5 0,-6-5 1464,0 0 0,-1 1 0,-15-13 0,-13-13 4732,40 38-5904,0-1-1,-1 1 1,1-1-1,0 1 0,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,0-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1 0 1,0-1-1,1 1 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,36-6-563,-32 5 682,52-8-310,-20 2-74,71-3 0,-110 32 697,-21 31 576,17-45-980,2 1-1,-1-1 1,1 1 0,1 1-1,0-1 1,0 0 0,1 1 0,0-1-1,0 1 1,1 0 0,0 0-1,1 13 1,1-22-74,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,1 0 1,41 0 77,-33-1-49,-4 1-20,0-1 1,0-1-1,-1 1 0,1-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 1,0-1-1,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,-1-1 0,0 0 0,0 1 0,0-1 1,0 0-1,-1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,-2-10 1,1 14-1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,-5 0 0,-3 0-4,0 0 0,-1 0-1,1 1 1,-18 2 0,27-2-40,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1 0,1-1-1,-1 1 1,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 3-1,-1 0-704,2 0-1,-1 1 1,0-1-1,1 0 1,0 1-1,0-1 1,0 1-1,1 4 1,3 12-5204</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3120.29">1935 338 11717,'0'0'9549,"-5"-3"-9301,5 2-246,-1 0 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 1,0 1-1,-13 29 82,10-18-57,-4 20 17,2 0-1,1 1 1,1 0-1,2 0 1,1 0 0,4 42-1,-1 6-4,-3-78-32,1 0 0,-1 0 1,0 1-1,0-1 0,0-1 0,0 1 0,-1 0 1,1 0-1,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0-1-1,0 1 0,-4 0 0,-10 3 41,1-1 0,0 0 0,-1-1 0,-18-1 0,34-1-43,1-1 1,-1 1-1,1 0 0,-1-1 0,0 1 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 1,0 0-1,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 1,0-1-1,-1 0 0,1 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0-1-8,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1-1,0 0 1,1-2 0,8-6-46,0 1 1,1-1 0,0 2 0,1 0-1,0 0 1,0 1 0,1 1-1,14-6 1,19-12-168,-4 2 59,-2-3 0,0 0 0,-2-3 0,68-63 0,-103 88 255,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,-1 0-1,-1-6 1,-29 10 420,28 1-519,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,1 3 0,-2 4-10,1 0 0,1 0 0,0 0 0,0 0 0,2 10 0,-2-17 11,1-1 1,-1 1-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,1-1 0,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,3-1 0,63 5 51,-58-5-11,1 0-54,0-1-1,-1 0 1,1 0-1,0-1 1,-1-1-1,1 0 1,-1 0-1,1-1 1,-1 0-1,-1-1 1,1 0-1,-1 0 0,0-1 1,0-1-1,0 1 1,-1-1-1,0-1 1,0 0-1,-1 0 1,0 0-1,11-18 1,-8 8-9,0 0 0,-2-1 1,0 0-1,-1 0 1,-1-1-1,-1 0 1,0 0-1,-2 0 0,0 0 1,-1-37-1,-1 36 34,0 14 46,-1 0 0,0 0 0,0 1 0,0-1-1,-2-9 1,1 16-45,1 0-1,0 0 0,-1-1 0,1 1 0,0 0 1,-1 0-1,1-1 0,-1 1 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1-1 0,-1 1 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,-1 1 0,1-1 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 0,0 1 1,-11 32-24,1 1 1,1 1 0,2-1-1,1 1 1,-2 60 0,-3 18 68,2-74 149,9-38-196,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,-1 0 1,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1-1,0-1 1,-3 0 0,7-10 148,8-3-222,1 0 0,0 0 0,1 1 1,0 1-1,1 0 0,0 1 1,28-15-1,-11 6-107,-10 6-14,0-2-1,-2 0 1,0 0-1,24-27 1,-38 36 175,0 1 0,0-1 0,-1 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1-1 1,0 1-1,-1 0 0,1-1 0,-1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,-2-9 0,2 15 43,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1 0 0,-3-1 0,2 1-21,0 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0 0-1,0-1 1,1 1 0,-1 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,1-1 0,-1 1-1,1 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,-3 5 0,-4 11 4,0 0 0,1 0 1,1 1-1,1-1 0,0 2 0,1-1 1,2 0-1,0 1 0,0 0 0,2 0 0,1 0 1,3 32-1,-3-50-14,1 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 1,1 0-1,-1 1 0,5-1 0,-1 0 8,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,-1 0 1,1-1-1,0 0 0,-1 0 0,1 0 0,5-4 0,4-6 26,0 0 0,-1-1 0,-1 0 0,14-18 0,-21 25-29,-6 6-16,1-1 1,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0 0 0,0-1 0,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1-1,-1 1 1,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1-1,0 0 1,1 0 0,19 36-2,-18-32 46,2 1-30,0-1 0,0 1 0,0-1 0,1 0-1,0 0 1,0 0 0,0 0 0,1-1 0,-1 0 0,1 0 0,0-1-1,0 0 1,1 0 0,-1 0 0,1 0 0,-1-1 0,1 0 0,8 1-1,-9-2 7,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,5-5 0,-6 5-3,-1-2 0,0 1 0,0 0 0,0 0-1,-1-1 1,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-2 0 0,1-8 0,1-56-34,-3 65-132,2 8-94,1 5 229,1 0 0,0 0 0,1 0 1,-1 0-1,1-1 0,8 11 1,14 30 10,-25-45-10,-1-1 1,1 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 0,0 1 1,0-1-1,0 1 1,3 1-1,9 1-2876,4-3-3792,-1-1-4262</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3354.15">3592 282 14695,'0'0'8131,"40"-8"-8067,-8 8-128,3 0 16,-8 0-688,4 0-593,0 0-1920,-13 0-2113,-4 0-5571</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3504.6">3601 420 11237,'0'0'9877,"-22"23"-9877,57-21 224,10-2-16,4 0-208,0 0-1265,-14-7-1808,-8-6-2274</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3801.51">3686 193 12534,'0'0'9778,"-1"0"-9773,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,5 2 0,0 0-1,-1 0 0,1 0 1,0 1-1,0-1 0,-1 1 1,7 4-1,15 4 52,35 7 40,-43-14-45,-2 1 1,1 1 0,0 1-1,-1 1 1,0 0-1,0 1 1,-1 1 0,21 14-1,-36-22-6,1 0-1,-1 0 1,1 1 0,-1-1-1,0 0 1,1 1 0,-1-1-1,0 1 1,0 0-1,0-1 1,0 1 0,0 0-1,-1-1 1,1 1-1,0 0 1,-1 0 0,0 0-1,1-1 1,-1 1-1,0 0 1,0 0 0,0 3-1,-1-3 22,1 1 0,-1 0 0,0-1-1,-1 1 1,1-1 0,0 0 0,-1 1 0,1-1-1,-1 0 1,0 0 0,0 0 0,0 0-1,-4 3 1,-9 6 205,0-2-1,-1 0 1,-32 14-1,29-15-241,-6 5-431,-43 29 1,31-13-6648,23-18-5087</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink254.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:35:02.100"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">121 209 3025,'0'0'15888,"4"-18"-14730,4 12-984,-1-1 1,0 0 0,-1 0 0,0-1 0,0 1 0,-1-1 0,0-1 0,0 1 0,0-1 0,-1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,-1 1-1,0-1 1,0 0 0,-1 1 0,0-12 0,0 20 457,0 6-461,-2 27-286,-11 61 0,6-55 183,-2 43 1,8 245 160,-35-326-133,35 0-90,-12 1 90,-1-1-1,0 0 0,1-1 0,-1-1 0,0 0 0,1-1 0,0 0 0,-15-6 0,28 8 641,2 1-629,140-2-1442,220-30 0,-231 10-2726</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink255.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:35:00.860"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">81 34 10677,'0'0'12101,"4"0"-11924,14 0-161,4 0 0,9-8 16,1-4-32,3 7-209,-8 0-335,-9 2-1361,-9 3-2657</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="196.51">0 240 13238,'0'0'5859,"125"0"-5443,-76-10-272,-13 0-96,-5 2-48,-9 6-1905,-17-1-2129</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink256.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:34:57.157"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">379 189 9556,'0'0'4512,"0"-15"-3328,0-97 1207,0 110-2297,0 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,-1 0 1,1 1-1,-1 0 1,-2-2-1,0 0 11,0 1 1,-1 0 0,0 0-1,1 0 1,-1 0-1,0 1 1,0 0-1,0 0 1,-5-1-1,2 1-61,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,1 1 0,-1 0 0,0 1 0,-12 6 0,13-4-45,0 1-1,0 0 0,0 1 1,1-1-1,0 1 1,1 0-1,0 1 1,0 0-1,0-1 1,1 2-1,0-1 1,1 0-1,0 1 0,0-1 1,-2 12-1,0 3-5,2 1 0,0-1-1,1 1 1,3 39 0,1-52-67,0-1 0,0 1 0,1-1 1,1 0-1,0 0 0,0 0 0,1 0 0,0-1 1,0 1-1,12 14 0,-9-13-31,0 0 0,-1 1-1,-1 0 1,0 0 0,6 20-1,-11-31 103,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,-1 1-1,-2 0 65,0 0 0,0 0 0,0-1 0,0 1-1,1-1 1,-1 0 0,-7-1 0,-4 1 176,7 0-175,-62-5 536,66 5-607,0-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-2 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,-3-4 0,6 6-174,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1-1 0,33-26-5687,4 7 398</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="276.58">325 336 5539,'0'0'6576,"1"13"-5690,1-1-696,-1 5 19,1 1 0,1-1-1,1 0 1,10 30 0,-13-44-193,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,5-2 0,-5 0 59,0 1 0,0 0 0,0-1-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,-1-1 0,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,1-4 0,0-2 431,-1 0 0,1-1 0,-2 1 0,1 0 1,-1 0-1,-3-18 0,3 26-526,0 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 1-1,0-1 1,1 1-1,-1-1 1,-2 0-1,-8 4-7232,7 4 222</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="829.04">588 416 4498,'0'0'12139,"1"3"-12032,17 79 610,-18-81-707,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1-1,0 1 1,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0-1-1,16-15 362,-8 1-224,-6 9-6,0-1-1,1 1 1,0 0-1,0 0 1,1 0-1,6-7 1,-10 13 411,1 31-661,-2-29 109,2 8 33,0 0-1,0 0 1,1 0-1,1 0 1,-1-1 0,2 0-1,-1 0 1,9 12-1,-13-20-10,14-4 274,-6-4-257,-1 0 1,0-1-1,-1 0 1,0 0-1,6-11 1,-5 7-24,0 2 1,1-1 0,12-13 0,-19 24-29,-1 0 0,0 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,0 0 0,1 1 0,-1-1 1,0 1-1,0-1 0,0 0 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,0-1 1,0 1-1,12 31 68,-2-5 54,-6-21-114,-1-1-1,0 0 0,1-1 0,0 1 0,0-1 0,0 1 1,1-1-1,-1-1 0,1 1 0,8 5 0,-8-7-695,-1 0-1,1 0 1,-1-1-1,1 1 1,0-1-1,0 0 1,0 0-1,5 0 1,13-1-5893</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1553.17">1118 392 1985,'0'0'16269,"0"12"-15912,0-4-250,0 1-1,1-1 0,-1 1 1,2-1-1,2 12 0,-3-18-98,-1 0 0,1-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,1 1 1,-1-1 0,0 0 0,1 1-1,-1-1 1,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,2 0 0,-2 1 12,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0-1,1-1 1,1-2 0,-1-1 16,-1 1 0,1-1-1,-1 1 1,0-1 0,0 0-1,0 1 1,-1-1 0,0 0-1,0-7 1,-1 9 27,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,0 1 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-5 1 0,8-2-103,-1 1 1,0 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,1 0 0,-1 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,1 1 0,11 0-110,1-1 0,-1 0-1,0 0 1,0-1 0,0-1-1,0 0 1,0-1 0,-1-1-1,1 0 1,17-8 0,-24 10 163,-1-1 0,1 0 1,0-1-1,-1 1 0,1-1 1,-1 0-1,0-1 0,0 1 1,-1-1-1,0 0 0,1 0 1,-1-1-1,-1 1 0,1-1 1,-1 1-1,0-1 0,-1 0 1,1-1-1,-1 1 0,0 0 1,-1-1-1,2-10 0,-2-1 355,3-38 1339,-4 51-1399,-1 8-138,-4 28-423,-29 137 308,19-110-19,4 1-1,2 0 1,-2 69-1,11 29 32,0-157-30,-1-15 99,-1 1-66,-1-1 0,-1 1 0,0 0 0,-1 0 0,-1 0 0,0 1 0,-1 0 0,0 0 0,-1 0 0,0 1 0,-1 0 0,-1 1 0,1 0 0,-2 1 0,0 0 0,0 0 0,-21-13 0,31 23-66,1 0 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1-1 1,1 1 0,0 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,23-3-427,-18 2 342,73-8-1793,38-5-5495,-37 1-3122</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2388.03">1831 362 12630,'0'0'9407,"-13"-7"-8815,-44-21-427,54 27-164,1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-2 2 0,-1 0-3,0 1-1,1-1 1,-1 1 0,1 0-1,0 0 1,1 0-1,-1 1 1,-2 8 0,4-10-6,0-1-1,0 0 1,1 0 0,-1 0-1,1 1 1,0-1 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,3 6-1,-2-7-13,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 1 0,1-2 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,4-1 0,1 1-5,0-1-1,0 1 0,0-1 0,0-1 1,0 1-1,-1-1 0,1 0 0,-1-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 0 1,0-1-1,-1 0 0,1 0 0,-1 0 0,0-1 1,0 1-1,-1-1 0,1 0 0,-1 0 1,0 0-1,-1 0 0,1-1 0,-1 1 1,0-1-1,0 0 0,0 1 0,-1-1 0,0 0 1,0 0-1,-1-8 0,0 13 399,0 6-160,-4 86-403,4-90 194,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 0,0 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0-1 0,1 1 0,32 7 41,-26-8-36,0 0 0,0 0-1,0-1 1,0 0-1,0-1 1,12-3-1,-11 1-11,-1 0-1,1-1 0,-1 0 0,0 0 0,0-1 1,-1 0-1,1 0 0,-1-1 0,-1 0 1,1 0-1,-1-1 0,-1 1 0,1-1 1,-1-1-1,-1 1 0,1-1 0,-1 0 1,-1 0-1,5-15 0,-1-8 301,-2 0-1,-1-1 1,-1 0 0,-2-45-1,-2 79-275,-1 0 1,0 0-1,1 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 0,-1 1 1,1-1-1,0 1 0,0 0 0,0 1 1,-8 23-36,1-1 0,1 1 1,1 0-1,2 1 0,1-1 1,1 1-1,2 51 0,0-74 18,1 1-1,0-1 0,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 1,0-1-1,-1 1 0,1-1 0,0 0 1,7 4-1,-8-5-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,0-1 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 0 1,0-1-1,1 1 1,-1 0-1,0-1 0,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,-1-1 0,1 0 1,-1 1-1,3-4 1,4-6-13,0 0 0,0-1 0,-2 0 0,1-1 0,-2 0-1,1 0 1,-2 0 0,0 0 0,0-1 0,-1 1 0,1-16 0,1-25-79,-2-80-1,-3 99 84,0 24-9,-2 36-84,0 0 0,-2 0 0,-8 26 0,6-23 134,0 1 1,-2 32-1,8-53-147,-1 9 208,0 0 0,2 0 0,0 0 0,5 26 0,-6-39-272,1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,1 1-1,-1-1 1,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0-1,1 1 1,-1-1 0,1-1 0,-1 1 0,1 0 0,0-1 0,5 2-1,27 3-5231</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3330.06">2762 54 11317,'0'0'8441,"-6"18"-8283,-15 44 249,4 0 1,2 2-1,-11 123 1,22-48-475,4-182-116,2-1 0,2 0 0,1 1-1,3 0 1,1 0 0,3 1 0,1 0 0,19-41-1,-30 78 172,0-1 0,1 1 0,0 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,0-1 0,7-6 0,-11 11 1,1 0 1,-1 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,0 0-1,0 1 1,1 19-137,-1-17 137,0 5-8,1 4 58,0 0 0,-1 0 1,0 0-1,-1 0 0,-1 0 0,0 0 0,0-1 0,-2 1 1,1-1-1,-1 1 0,-1-1 0,0 0 0,-9 14 1,-8 5-85,1-1-3413,42-66-4967,-6 9 7482,14-10 3701,-26 36-2589,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,1 1 1,-1-1-1,0 1 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 1 0,0 0 0,-1-1 1,1 2-1,0-1 0,-1 0 0,1 1 1,5 1-1,-7-2-114,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,1 0-1,-1 0 0,-1 0 1,1-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,-1 3-1,0 0 149,1 1 0,-1-1 1,0 0-1,-1 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,-4 4 0,-5 3 88,1-1 0,-1 0-1,-1 0 1,0-1-1,-16 9 1,27-18-160,1-3-195,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 1,1 0-1,0 1 0,-1-1 0,4-1 0,4-5-429,81-89-3600,-39 25 4369,-53 91 2842,1-8-3018,1-1 0,1 1-1,0 0 1,3 15-1,-3-24-86,-1-1 0,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,1 1 0,-1 0-1,1-1 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1 0 0,-1-1-1,1 1 1,0-1-1,-1 1 1,3-2-1,0 0 70,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,-1-2 0,1 1 0,-1 0 0,0-1 0,4-6 0,-3 3 157,-1 0 1,0 0-1,-1 0 0,0 0 1,0 0-1,0-1 1,-1 1-1,0-1 1,0 1-1,-1-12 0,0 16-171,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 1 1,1 0-1,-1-1 1,-5 0-1,0 0-51,0 0 0,0 1 0,-1 0 0,1 1 1,0-1-1,0 2 0,-1-1 0,1 1 0,0 1 0,-9 2 0,13-3-227,1 0 1,-1 0-1,1 1 1,-1-1-1,1 1 1,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,1 0 1,-1 0-1,1 0 1,0 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,0 1 1,-2 6-1,2 11-5564</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink257.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:35:05.283"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">86 62 9044,'0'0'9823,"-7"-12"-8913,-20-36-115,27 48-770,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,-5 20 239,0 29-385,-9 356 678,14-400-551,0-4 37,-1-36 301,-11-65-537,3-181 1,9 265 190,0 16-4,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,7 10-123,6 14 70,10 52 104,-19-54-26,1-1 1,1 1-1,1-1 0,1-1 1,1 0-1,1 0 0,22 31 1,-33-51-24,1 1 1,-1-1 0,1 1-1,0-1 1,-1 1-1,1-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1-1 1,0 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 0-1,0-1 1,20-43-49,-17 37 59,34-112 124,-9 22-16,-14 198 248,-8 123-17,1-187 118,9-6-4376,-15-28 3563,1 0 0,0-1 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 0 0,0 0 0,3-2 0,25-18-4027</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="210.49">478 202 4434,'0'0'2527,"2"-16"108,-1-6-1511,4-20 167,9 1 2623,-11 45-394,9 29-3340,14 97 1956,-21-95-1884,1 0 1,2 0-1,18 47 0,-24-77-306,0-1 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,1-1 1,-1 0 0,7 6 0,-8-8-415,1 1 1,-1-1 0,1 0-1,-1 1 1,1-1 0,0 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,5 1-1,0-4-3426,-6-9-2809</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="389.48">500 322 5090,'0'0'12998,"62"-39"-12437,-17 27-561,8 1 16,-13 1-48,1 3-1425,-19-1-1152,-13-2-2434,-9-3-4481</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="535.81">500 24 10309,'0'0'6467,"130"-18"-7140,-73 18-991,-12 10-1730,-9 8-3729</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="848.45">1048 128 8100,'0'0'13419,"-3"-13"-12752,-16-38-541,19 50-125,-1 1 0,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 0,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 0,1 1 1,-1-1-1,0 1 1,1-1-1,-1 0 0,0 1 1,1 0-1,-1-1 1,0 1-1,-26 26 112,24-24-93,-10 13 35,0-1 0,2 2 0,-1-1 0,2 2 0,0-1 0,1 1-1,1 1 1,1-1 0,1 2 0,0-1 0,1 0 0,1 1 0,1 0 0,1 0 0,1 0 0,2 39 0,0-55-58,0 1 0,-1-1-1,2 0 1,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,2 0 0,-1-1 0,0 1 0,1-1-1,0 1 1,-1-1 0,1 0 0,1 0 0,6 5 0,-3-4-66,0 0 0,0 0-1,0-1 1,1 0 0,0 0 0,-1-1 0,1 0-1,0 0 1,10 1 0,-3-2-669,0 0 1,0-1-1,1-1 1,20-3-1,-25 3-770,0-2 1,1 0-1,-1 0 1,-1-1-1,14-6 1,5-8-6526</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1124.02">1325 184 5555,'0'0'14433,"-3"-8"-13411,-11-23-475,14 30-545,0 1 1,0 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,-11 15 3,9-12 24,-6 9 48,0 0-1,1 1 1,1 0 0,0 0 0,1 0 0,1 0 0,0 1 0,1 0 0,0 0 0,1 0 0,1 0-1,0 0 1,1 0 0,4 25 0,-3-35-76,0-1 1,0 0-1,0 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 1,1 0-1,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1-1-1,0 1 0,-1-1 0,7 3 1,0-1-467,-1-1 0,1 0 0,0-1 0,-1 0 1,1-1-1,0 0 0,18 0 0,-28-1 297,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0 0,-1-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,0-2 0,0-19-6933</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1292.7">1244 360 9188,'0'0'10325,"36"-38"-10661,9 28 304,-1-1-432,5 1-2562,-13-2-591,-5-4-3619</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1481.69">1329 123 448,'0'0'18185,"98"-30"-18602,-36 19 417,9-1-864,-4 4 160,-9-2 335,-18 10-527,-22 0-529</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink258.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:34.797"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 4226,'0'0'13513,"20"0"-13452,388 0-586,-407 4-3435,-9 17 1191,-12-11-686</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="394.01">76 164 3009,'0'0'7612,"-6"0"-6921,-16 0 157,16 0 309,20 0-601,75-2 452,0-3-1,114-21 1,-187 25-1847,-16 1 617,1 1 1,-1-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,0 1 0,1-1 0,-1 1-1,0-1 1,1 1 0,-1-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1 0,0 0-1,0 7-4172</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink259.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:36.398"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 17 9332,'0'0'6278,"-1"-1"-6188,1 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 0,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 1,55-1 150,-18 1-99,49 3 0,-75 0-790,0-1 0,1 2-1,-1-1 1,20 9 0,-15 1-2527,-13 2-2222,-3-5 800</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="301.88">0 246 4098,'0'0'8092,"6"2"-7457,16 3-210,0-1 0,1 0 1,-1-2-1,1-1 0,-1-1 1,39-4-1,-25 2-84,-1 1-154,0-2 0,0-1 0,0-2-1,-1-1 1,53-19 0,-85 25 207,1-1-1994,-9 2-2175,-14 0-1417</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -19653,6 +24276,292 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink260.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:39.204"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">129 171 5475,'0'0'9551,"0"-4"-8492,-8 158 1494,-1-91-1891,0 84-1,7-128-351,-3-26 450,-2-34-144,7-9-567,-2 20-74,2 1 0,1-1 1,1 0-1,1 1 0,2 0 0,1 0 1,12-36-1,-12 49 16,1 0-1,0 0 1,1 1-1,1 0 1,1 1 0,15-20-1,-19 29 8,-1-1 0,1 2 0,-1-1-1,1 1 1,1-1 0,-1 2-1,0-1 1,1 1 0,0 0 0,0 0-1,0 1 1,0 0 0,0 0-1,0 1 1,1-1 0,-1 2-1,13-1 1,-19 1 2,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 1,-1 1 0,0-1-1,0 0 1,0 1-1,1 0 1,-1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,1 2-1,0 0-1,-1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 1 1,-1 6-1,0 0 2,0-1-1,-1 0 0,-1 1 0,1-1 0,-1 0 1,-7 16-1,2-11 13,-1-1 0,0 0 1,-1-1-1,-20 22 0,-19 29 31,106-59-183,-53-4 132,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 0,-1 1 1,1 1-1,0-1 0,-1 1 1,0-1-1,1 1 1,-1 1-1,8 4 0,-9-4 3,0 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 7 0,0-2 29,0-1 0,-1 1 0,0-1 1,-1 1-1,1-1 0,-2 1 0,1-1 1,-1 0-1,0 1 0,-1-1 0,-4 9 0,3-11 4,1-1 0,-1 1-1,0-1 1,-1 0-1,0 0 1,1-1 0,-1 0-1,-1 0 1,1 0-1,0 0 1,-1-1 0,0 0-1,0 0 1,-12 4-1,-12 4 154,0-2 0,0-1-1,-1-1 1,-42 3 0,-14-7-5908,74-3-829</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink261.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:41.313"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">174 261 7331,'0'0'7350,"-5"-9"-5970,-16-25-473,16 26-456,3 40-152,-1 0 1,-13 55-1,-4 30 139,13-81-463,2-25 321,1-21 1301,1-22-1456,2 0-1,1 1 1,1-1 0,2 0-1,1 1 1,13-52 0,-12 67-171,0-1 0,1 1-1,0 0 1,2 1 0,-1 0 0,2 0 0,0 0 0,1 1-1,1 1 1,0-1 0,0 2 0,1 0 0,28-22 0,-38 32 15,1 0 1,0 1 0,-1-1-1,1 0 1,0 1-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 1-1,0-1 1,0 1 0,0-1-1,5 1 1,-6 0 5,-1 1 1,0-1 0,1 1-1,-1 0 1,0 0 0,0-1-1,1 1 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,0-1 0,0 1-1,-1 1 1,2 7 3,-1 0-1,0 0 1,0 0 0,-2 0-1,1 0 1,-1 0 0,0-1-1,-1 1 1,0-1 0,-9 19 0,3-14 19,0 1 0,0-2 0,-2 1 0,0-1 0,-21 19 0,-43 43 16,77-74-105,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,1 0 0,-1 0 0,0 0 0,4 0 0,26-1-75,-18 0 84,0 0 0,1 1 0,-1 1-1,0 0 1,16 4 0,-27-4 62,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,-1-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0-1 0,-1 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 2 1,0-1 37,0 0-1,0 0 1,0 0 0,0-1 0,-1 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,-1 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0-1 0,0 0 0,0 0-1,-1 0 1,1 0 0,-5 2 0,-10 8-21,-1-1 0,-1-1 0,0-1 1,0 0-1,-1-1 0,-40 8 0,42-12-2762,1-2-1,-30 1 1,0-3-7586</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink262.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:43.200"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18 100 8052,'0'0'6029,"0"14"-5621,3 86 1035,1-51-753,-3 0-1,-1 0 1,-3 1-1,-12 61 1,10-137 1972,2-28-2601,4 28-89,1 0 0,1 0 0,1 0-1,2 0 1,0 1 0,2 0-1,0 0 1,15-28 0,-17 40 2,1 0 1,0 0-1,1 0 1,1 1-1,-1 1 1,2-1-1,0 1 1,0 1-1,1 0 1,0 1-1,1 0 1,0 0-1,0 1 1,1 1-1,0 0 1,15-5-1,-26 11 22,0 0-1,0 0 1,0 1-1,1-1 1,-1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,2 1 1,-3 0-2,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0 5 0,-1-1 0,1 1 0,-1 0 0,0 0 1,-1 0-1,-2 13 0,1-10 19,0-1 1,-1 0-1,0 0 0,-1 0 1,0 0-1,0-1 1,-1 1-1,0-1 0,-7 9 1,-2 0 14,0-1 1,-1 0-1,-17 13 1,31-28-35,1-1 1,-1 1-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 1 1,1 0-1,0 1 0,30 31-308,-21-23 247,7 8 27,26 30 14,-41-45 29,1 1-1,-1 0 1,0-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,-1 0-1,1 5 1,-1-7 8,0 0-1,-1-1 1,1 1-1,-1 0 1,0-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 0 0,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0-1-1,-3 2 1,-49 13 352,38-11-325,-5 1-123,-1 0 0,-23 2 0,6-7-3841,13-4-2498</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink263.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:45.319"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">138 268 12630,'0'0'7654,"-1"0"-7617,0 1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 1,0 0-1,1 3 0,-3 37 90,-14 139 493,14-173-174,0-10-109,-1-26 72,1-46-262,2 48-191,2 1-1,1-1 1,2 0-1,0 1 0,2 0 1,0 1-1,2-1 1,1 1-1,1 1 0,1 0 1,1 1-1,1 0 1,26-31-1,-37 51 29,0-1 0,1 1 0,0 0 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,1 1 0,8-4 0,-12 5 13,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 2 0,1 8 21,0-1-1,0 1 0,-1 0 1,-1 0-1,0 0 0,0 0 1,-1-1-1,0 1 0,-1-1 1,-7 19-1,-3-1 66,-1-1 0,-26 36 1,1-1-63,39-61-28,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,1-1 0,-1 1 1,0 0-1,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 0,-1 0 1,1 1-1,0-1 0,-1 0 0,3 1 1,28 13 0,-25-12-7,9 4 12,1 0 0,-1 0 1,0 1 0,0 1 0,-1 0 0,0 1 0,0 1-1,16 13 1,-29-22 4,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 3 0,0-2 5,0 0-1,-1-1 1,1 1 0,0 0 0,-1 0 0,1-1 0,-1 1-1,0-1 1,0 1 0,1-1 0,-1 0 0,0 0 0,-3 2-1,-8 2 90,1 0 0,0-1 0,-26 5 0,-15 0-151,-85 4 0,55-12-3715,38-1-1925</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink264.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:42.145"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">214 41 7411,'0'0'6342,"-5"17"-5790,-48 141 1819,-76 152-1,123-295-2252,-7 16-109,8-27 314,3-16 478,3-13-739,1 1 0,2-1 0,0 1 0,2 0 0,1 0-1,12-31 1,72-138-1038,-70 153 783,-11 20 166,-3 4 24,1 0-1,16-23 1,-21 36 9,-1 0-1,0 0 1,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0-1,1 0 1,6-1 0,-8 2-2,1 0 0,-1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 3 0,17 55 67,-17-57-66,6 38 20,-1 0 0,-2 0 0,-2 1 0,-2-1 0,-7 61-1,5-86-422,-2 0 0,1 0 0,-9 20 0,10-30-370,0-1-1,0 1 1,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0-1-1,0 1 1,-9 6 0,-6-3-4762</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="151.82">32 454 8724,'0'0'10325,"62"-38"-10165,5 27 0,14 1-160,8 0-560,18 2-2418,4 1-143,-4-1-9205</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink265.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:40.152"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">179 127 5955,'0'0'9297,"-1"-9"-8157,-7-24-522,8 33-615,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0-1,-1 0 1,1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-11 16 4,10-16 10,-19 35 154,-8 12 205,3 1 0,-21 57 0,43-96-295,1-5-39,1 0 1,-1 1-1,0-1 0,-1 0 0,1 0 1,-1 0-1,-5 8 0,7-12 6,5-27 515,17-18-582,2 1 0,1 1 0,35-43 0,23-40-612,-60 94 539,-21 31 87,-1-1 0,1 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 1,1 0-1,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 1,-1-1-1,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 1,0 1-1,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,6 19 71,-2 0 0,0 0 0,-1 1 0,-1-1 0,-1 1 0,-1-1 0,-3 30-1,2 41 62,5-3-230,3 42-122,-6-45-7549,-1-80 2761</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="168.11">59 392 2401,'0'0'12742,"27"-66"-12566,26 55 112,9 1-144,5 3-128,4-4-16,1 11-608,-10-5-1121,-8 5-2993</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink266.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:37.979"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">103 163 2049,'0'0'9828,"0"-8"-8550,0-26-229,0 25 1064,0 22-2038,-2 9 102,-1 1 0,-2-1 0,0 0 0,-1 0-1,-15 33 1,-4 17 237,19-47-309,5-17-57,-1 0 0,-1 1-1,1-1 1,-1-1 0,0 1 0,-1 0 0,-7 11 0,11-18 598,0-21 602,0-5-1240,2 0 0,1 1 0,0 0 0,2-1 0,1 1 0,1 1 0,1-1 0,1 1 0,1 1 0,22-37 0,-32 59-10,13-22-102,1 2-1,26-32 1,-37 47 90,1 1-1,1-1 1,-1 1 0,0 0-1,1 1 1,0-1 0,0 1-1,0 0 1,0 0 0,1 1-1,-1-1 1,1 1-1,0 1 1,-1-1 0,1 1-1,0 0 1,6-1 0,-10 3 5,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,0 2-1,14 39-47,-14-39 53,8 41 48,-3 1-1,-1-1 0,-2 1 1,-6 77-1,2-30 6,1-63-209,-1 37 129,-7-25-3665,8-41 3482,-1 0-1,1-1 1,0 1 0,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0 0,-1 0-1,0 0 1,1 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,0-1 1,-13 1-8004</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="196.83">76 357 944,'0'0'12774,"129"-46"-12245,-75 38-225,8 3-96,-4 3-176,0-1-32,-5 3-849,-8 0-607,-9 0-2914,-5 0-2225</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9354.87">901 245 10421,'0'0'7694,"0"-5"-6744,0-9 1995,0 28-1990,4 75-1219,-1-67 292,1-1 0,0 1 0,2-1 0,0 0 0,16 35 0,-19-51-18,0 1-1,1 0 1,0-1 0,-1 1 0,2-1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,1 0 0,-1 0-1,1 0 1,-1-1 0,1 0 0,0 0 0,0 0-1,0-1 1,1 0 0,-1 0 0,0 0 0,1-1-1,-1 0 1,10 0 0,-9 0-1,0 0 0,0-1 0,0 0-1,0 0 1,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1-1 0,1 1 0,-1-1-1,0 0 1,0-1 0,0 0 0,0 1 0,0-2 0,-1 1 0,0-1 0,0 0 0,0 0-1,-1 0 1,1-1 0,-1 1 0,-1-1 0,1 0 0,-1 0 0,3-8 0,1-2 10,-1 0 0,0-1 0,-1 0 0,-1 0 0,3-30 0,-3-90 736,-4 107-298,-1 20 686,0 6-5037</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink267.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:50.511"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">45 309 6675,'0'0'6622,"-21"6"-5746,15-6 4512,1-13-5307,2 0-1,0 0 1,0 0-1,1 0 1,1 0-1,0 0 1,1 0-1,1-1 1,0 1 0,0 0-1,5-17 1,-4 22-119,0 1 0,0 0 0,1 0 1,0 1-1,0-1 0,1 0 0,0 1 1,0 0-1,0 0 0,1 0 0,0 1 1,0-1-1,1 1 0,-1 0 0,1 1 1,0-1-1,0 1 0,1 0 0,-1 1 1,1-1-1,10-2 0,-6 2 29,1 1 0,0 0 0,1 0 0,-1 2 0,16-1 0,-24 1 8,0 1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 1 0,-1-1 0,0 0-1,1 1 1,4 5 0,-2 1 3,0 1 0,0 0-1,-1 0 1,0 1-1,-1 0 1,0-1 0,-1 1-1,0 0 1,-1 1 0,0-1-1,0 0 1,-1 1 0,-2 22-1,0-8 112,-2 1 1,-1-1-1,-1 0 1,-16 49-1,-6 4 271,26-74-352,1-2 0,0-3-173</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink268.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:44.325"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">183 207 7331,'0'0'9413,"0"-12"-8360,0-37-140,0 37-401,0 18-497,-1 0-1,-1 0 0,1 0 1,-1 0-1,0-1 0,-5 11 1,-1 3 18,-109 242 703,89-202-584,28-59-139,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,-1 1 0,0-29 370,6-41-243,7 15-344,3 2 1,1 0-1,4 0 1,1 2-1,2 0 1,32-48-1,-54 97 203,-1 0-1,1 0 0,0-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,0 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 0,0 0 1,3 1-1,-2 0-2,0 0 1,0 0-1,0 0 0,0 0 0,0 1 1,0-1-1,-1 1 0,1 0 1,0-1-1,-1 1 0,1 0 0,-1 0 1,0 0-1,2 2 0,5 11 28,-1 1-1,0-1 1,4 20-1,-10-33-3,9 40 54,-2 1 1,-2 0-1,-1 0 0,-3 0 1,-4 65-1,1-30-1035,1-74 207,-1 8-1551,-3-7-3531</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="153.27">0 366 11445,'0'0'7027,"121"-49"-7059,-37 36-16,19 1-1856,-1 2-1570,1 2-7379</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8011.88">985 549 2561,'0'7'11051,"6"-86"-6181,-4 67-4615,0 1 1,1-1 0,1 0 0,5-12 0,-6 17-268,1 0 1,-1 0-1,2 1 1,-1-1-1,1 1 0,0 0 1,0 0-1,1 1 1,-1-1-1,1 1 1,0 1-1,1-1 1,-1 1-1,1 0 1,0 0-1,0 1 0,9-4 1,-10 5 10,0-1-1,1 1 1,-1 0 0,0 1-1,1-1 1,-1 1-1,1 1 1,-1-1 0,14 1-1,-19 1-3,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,2 3 0,-2-1-3,1 1 0,-1-1 0,0 1 1,0 0-1,0 0 0,-1-1 1,1 1-1,-1 0 0,0 6 1,0 0 6,-8 243 578,3-179 2,5-73-555,10-5-7638,6-15-417</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink269.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:53.576"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 346 3522,'0'0'10666,"0"-16"-9132,0-51 477,0-28 3739,0 94-5633,0 9-149,-3 112 51,3 82 80,0-198-97,0 1 1,0-1-1,1 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,0-1-1,0 1 1,0-1 0,1 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,1 0-1,-1 0 1,0-1 0,1 0-1,0 0 1,4 3 0,-4-4 4,1 1 1,0-1-1,0 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0-1-1,0 1 1,-1-1-1,1 0 1,0-1-1,0 1 1,-1-1 0,1 0-1,-1 0 1,0 0-1,9-6 1,4-4 60,-1-1 1,0-1-1,-1-1 1,-1 0-1,0-1 1,-1 0-1,-1-1 1,0-1-1,-1 1 1,-1-2-1,-1 0 1,-1 0-1,8-26 1,-4 3-100,-2-1 0,-2 0 0,-1-1 0,-3 0 0,-1-54 0,-4 103-381,-1 1-1,1 0 1,-1-1-1,0 1 1,-1-1-1,1 1 1,-1-1-1,-6 9 1,-5 11-1630,-6 20-4014,-1-2-4640</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -19678,6 +24587,232 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">407 76 5747,'4'-1'18216,"3"-7"-17797,-6 7-416,-1-1-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 1 0,-1-2-1,-1 1-5,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 1 0,1-1 1,0 1-1,-1 0 1,-6-1-1,-6-1-12,0 2 0,1 0 0,-1 1 0,-21 2 0,34-1 7,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 6 0,-1-3-3,1 1 0,1-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,1 1 0,0-1 1,0 1-1,1-1 0,-1 0 1,1 0-1,5 10 0,0-6 23,-1 0 0,-1 0 0,1 1 0,-2-1 0,1 1 0,-2 0 0,1 1 0,-1-1 1,-1 0-1,0 1 0,-1 0 0,0-1 0,-1 1 0,-1 15 0,0-25-1,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,-1-1 1,0 0-1,0 0 0,1 0 1,-1 0-1,-1 0 0,1 0 0,0 0 1,0-1-1,-1 1 0,-3 1 1,-43 22 61,48-25-69,-20 10 47,1-2 0,-1 0 0,-1-2 0,1 0 0,-1-1 0,-31 3 0,51-8 41,8-22-902,-3 19 775,0 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 1 0,-1-1 1,0 1-1,1-1 0,5 2 0,-9-1 28,1 1 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,1-1 0,-1 3 1,4 34 62,-3-10-9,-2 0 0,-1-1-1,-2 1 1,0-1 0,-12 41 0,-6-9 100,-9 37 172,30-45-55,1-28-131,1-22-127,-1 0 1,1 0-1,0 0 1,-1 1 0,1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,0-1-1,1 0 1,-1 1 0,0-1-1,1 0 1,-1 0-1,0 0 1,3 0-1,44 2 189,-45-2-164,23 1-562,-13 0 610,-1-1 0,1-1-1,-1 0 1,14-2 0,-4-6-3394,-1-5-3764</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink270.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:56.247"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">432 0 7940,'0'0'7483,"-13"5"-7195,-15 8-116,0 0-1,2 2 0,-1 1 1,2 2-1,0 0 0,2 1 1,0 2-1,1 0 1,0 1-1,2 2 0,-33 49 1,39-51-45,1 1 0,1 1 0,1 0 0,1 0 0,1 1 0,-9 37 0,15-44-109,0-1 0,1 1 0,1-1 0,1 1-1,0 0 1,1 0 0,1-1 0,1 1 0,0-1 0,8 22 0,-6-26-70,1 0 0,0 0 0,1-1 0,0 0-1,1 0 1,0 0 0,1-1 0,1 0 0,-1-1 0,2 0 0,-1-1 0,1 0 0,1-1-1,15 10 1,-4-5-619,1-2 0,0 0 0,1-1 0,0-2-1,1 0 1,44 6 0,53 1-4507</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink271.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:57.839"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">274 89 10069,'0'0'12560,"-4"-15"-11818,-12-42-233,7 41-237,2 20-231,5-2-26,-15 13-7,2 1-1,0 0 0,0 1 0,2 1 0,0 1 0,1-1 0,1 2 0,-12 27 0,4-1 34,2 1 0,-19 84 0,26-78 7,-7 79 0,15-109-127,2 0-1,1 1 1,0-1 0,2 0 0,10 45 0,-8-55-103,0 0 0,1-1 0,0 0 0,1 0 0,0 0 0,1-1 0,1 1 0,0-2 0,0 0 0,12 11 0,-5-8-1067,-1 0 0,2-1 0,0-1 1,0-1-1,1 0 0,24 9 1,46 8-11177</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink272.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:58.560"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">67 117 3073,'0'0'16424,"-1"-3"-15674,-2-7-530,6 9-92,15 15-49,24 34 54,-18-16 53,-2 1 0,-1 1 0,-2 1 0,-1 1 0,-2 0 0,-2 1 0,-1 1 0,-1 0 0,-3 1 0,-1 0 0,-2 0 0,-1 1 0,-2 70 0,-5-100-157,0 0-1,0 0 1,-1-1 0,0 1 0,-1-1 0,0 0 0,0 0-1,-1 0 1,0-1 0,-1 1 0,0-1 0,0 0 0,-1-1 0,1 0-1,-2 0 1,1 0 0,-11 6 0,4-2-501,0-1-1,-1-1 1,-30 14-1,33-18-893,0-1-1,0 0 1,-1 0-1,1-2 1,-16 3-1,-13-4-8648</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="352.95">549 0 9652,'0'0'6756,"0"13"-6676,0 17 144,0 9 48,0 6-144,0 4-48,0-1 48,0 3-128,0-3-256,0-14-2017,0-9-3330</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink273.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:38:55.633"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">166 286 12854,'0'0'7446,"11"-1"-7286,-6 0-149,1 0 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 1 0,1 0 0,-1-1 0,0 2 0,0-1 0,0 0 0,0 1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,5 8-1,6 11 50,0 0-1,-2 1 0,-1 1 0,-1 0 0,-1 0 0,-2 0 0,0 1 0,-2 1 0,0-1 0,-2 1 0,-1-1 0,-1 1 0,-1 0 0,-5 28 0,3-39-47,-1 1 0,-1-1 0,-1 0 0,0-1 0,-1 1 0,-1-1 0,0 0 0,-1-1-1,-1 0 1,0 0 0,-1-1 0,-21 23 0,8-13-877,-2-1 0,0-1 1,-2-1-1,0-1 0,-45 23 0,-25 6-5087</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1261.98">749 14 10629,'0'0'8068,"-18"-13"-7860,18 36-304,0 7 96,0 11 112,0 2-32,0 6-48,0 2 16,0 7-48,-4-4-2193,-10-14-3858</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink274.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:39:00.389"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26 34 5491,'0'0'8281,"0"-6"-7145,0-16-442,0 17-257,-1 22-333,-7 17 171,1 1 0,2 0 0,2 0 0,1 63-1,2-96-315,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 1,-1-1-1,1 0 1,0 1 0,-1-1-1,3 1 1,29 9-4162,-7-10-3798</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink275.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:39:01.367"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">76 9 5555,'0'0'8550,"-3"-8"-6356,3 8-2185,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-8 35 324,1 1-1,1-1 1,3 2-1,0-1 1,4 43-1,-6-40-963,-10-16-2662,-5-7-1547</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink276.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:39:02.128"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 131 7075,'0'0'6040,"4"-16"-4255,15-49 21,-19 63-1647,1 0-1,-1-1 0,1 1 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 1 0,1-1 1,0 0-1,0 1 0,0 0 0,0-1 1,2 0-1,4-2 636,-8 4-594,6 47-66,-5-24-288,1 4 328,9 50 1,-9-68-815,1-1-1,0 1 1,0-1 0,1 0-1,0 1 1,0-2 0,1 1-1,0 0 1,10 11 0,15 12-6478</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink277.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-02T07:39:02.900"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 22 8260,'0'0'8212,"0"-5"-7055,3-11-650,-3 25-179,-9 37-95,-5 1-36,-14 93 1,22-60-4825,6-68-4299</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22630,8 +27765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3CDE53-585F-43F4-B9F8-4E3A39D54318}">
   <dimension ref="E131:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C131" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
